--- a/PEUQSE/simulationDriver_YAML/ceO2_output_rates_gas_YAML.xlsx
+++ b/PEUQSE/simulationDriver_YAML/ceO2_output_rates_gas_YAML.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvs\Documents\GitHub\PEUQSE\PEUQSE\simulationDriver_YAML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9B9C64D1-2789-4C3F-9D36-0A0623BD39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0060622-15CA-451A-B465-4334ABD7863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ceO2_output_rates_gas_Example1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5474,1504 +5474,1504 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="500"/>
                 <c:pt idx="0">
-                  <c:v>8.4738143920423306E-31</c:v>
+                  <c:v>4.23690719602116E-31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1531927154430098E-30</c:v>
+                  <c:v>2.0765963577215E-30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9148515005864701E-29</c:v>
+                  <c:v>9.5742575029323504E-30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.33375697671585E-29</c:v>
+                  <c:v>4.16687848835792E-29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4347157067058702E-28</c:v>
+                  <c:v>1.7173578533529299E-28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34454489227959E-27</c:v>
+                  <c:v>6.7227244613979597E-28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0129400903151097E-27</c:v>
+                  <c:v>2.5064700451575499E-27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7846640945479101E-26</c:v>
+                  <c:v>8.9233204727395894E-27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.08141245181355E-26</c:v>
+                  <c:v>3.0407062259067698E-26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9879403460313699E-25</c:v>
+                  <c:v>9.9397017301568701E-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.24677131438318E-25</c:v>
+                  <c:v>3.12338565719159E-25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8906211584628198E-24</c:v>
+                  <c:v>9.4531057923141102E-25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5212694173978997E-24</c:v>
+                  <c:v>2.7606347086989499E-24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5584672102849999E-23</c:v>
+                  <c:v>7.7923360514250201E-24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.25866338387796E-23</c:v>
+                  <c:v>2.12933169193898E-23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.12827732769407E-22</c:v>
+                  <c:v>5.6413866384703898E-23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9022572677389402E-22</c:v>
+                  <c:v>1.4511286338694701E-22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.25784341092905E-22</c:v>
+                  <c:v>3.6289217054645198E-22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7667344998603299E-21</c:v>
+                  <c:v>8.8336724993016794E-22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1911773448190304E-21</c:v>
+                  <c:v>2.0955886724095099E-21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.70022466927241E-21</c:v>
+                  <c:v>4.8501123346361997E-21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1926104057362301E-20</c:v>
+                  <c:v>1.09630520286811E-20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8451008824345198E-20</c:v>
+                  <c:v>2.4225504412172599E-20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0476354067469E-19</c:v>
+                  <c:v>5.2381770337345299E-20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2185333497222501E-19</c:v>
+                  <c:v>1.10926667486112E-19</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6050279185164597E-19</c:v>
+                  <c:v>2.3025139592582299E-19</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.3767447006689901E-19</c:v>
+                  <c:v>4.6883723503344902E-19</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8743497029756298E-18</c:v>
+                  <c:v>9.3717485148781799E-19</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.68075040771041E-18</c:v>
+                  <c:v>1.8403752038552E-18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.1056240140327793E-18</c:v>
+                  <c:v>3.5528120070163897E-18</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.34935564945946E-17</c:v>
+                  <c:v>6.7467782472973198E-18</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.52216502195365E-17</c:v>
+                  <c:v>1.2610825109768199E-17</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.6429609003804299E-17</c:v>
+                  <c:v>2.32148045019021E-17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.42229583615306E-17</c:v>
+                  <c:v>4.21114791807653E-17</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.50628783390587E-16</c:v>
+                  <c:v>7.53143916952935E-17</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.65732574020838E-16</c:v>
+                  <c:v>1.32866287010419E-16</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.6264534765724895E-16</c:v>
+                  <c:v>2.3132267382862398E-16</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.95272349288174E-16</c:v>
+                  <c:v>3.97636174644087E-16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3503195492355499E-15</c:v>
+                  <c:v>6.75159774617779E-16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.26563758539219E-15</c:v>
+                  <c:v>1.1328187926960901E-15</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.7579391728003598E-15</c:v>
+                  <c:v>1.8789695864001799E-15</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.1642337269507502E-15</c:v>
+                  <c:v>3.08211686347537E-15</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.00031307259346E-14</c:v>
+                  <c:v>5.0015653629673301E-15</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6064637808371999E-14</c:v>
+                  <c:v>8.0323189041860704E-15</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.55404343434436E-14</c:v>
+                  <c:v>1.27702171717219E-14</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0211107188132997E-14</c:v>
+                  <c:v>2.0105553594066899E-14</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.2712832807678305E-14</c:v>
+                  <c:v>3.1356416403840503E-14</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.6913901427111696E-14</c:v>
+                  <c:v>4.8456950713558997E-14</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4844182281399299E-13</c:v>
+                  <c:v>7.4220911407003499E-14</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.2541515662923499E-13</c:v>
+                  <c:v>1.12707578314631E-13</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3945141769970998E-13</c:v>
+                  <c:v>1.6972570884988301E-13</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0704428102522102E-13</c:v>
+                  <c:v>2.5352214051266099E-13</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.5143081694418599E-13</c:v>
+                  <c:v>3.7571540847218402E-13</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.10510363780414E-12</c:v>
+                  <c:v>5.5255181890223803E-13</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.61316458436299E-12</c:v>
+                  <c:v>8.0658229218178198E-13</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.3377665863515402E-12</c:v>
+                  <c:v>1.1688832931762499E-12</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.3639485553707201E-12</c:v>
+                  <c:v>1.6819742776861501E-12</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.8072331206293001E-12</c:v>
+                  <c:v>2.40361656031593E-12</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.8234244729617201E-12</c:v>
+                  <c:v>3.4117122364828799E-12</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.6211044044777298E-12</c:v>
+                  <c:v>4.8105522022419999E-12</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.34773611944795E-11</c:v>
+                  <c:v>6.7386805972445702E-12</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8757266440910599E-11</c:v>
+                  <c:v>9.3786332204626003E-12</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5937484253084699E-11</c:v>
+                  <c:v>1.29687421265537E-11</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.5634063887098103E-11</c:v>
+                  <c:v>1.78170319435669E-11</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.8633784040804501E-11</c:v>
+                  <c:v>2.4316892020429001E-11</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.5927157663632096E-11</c:v>
+                  <c:v>3.2963578831861401E-11</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.8739037456521602E-11</c:v>
+                  <c:v>4.4369518728315498E-11</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1854922547008401E-10</c:v>
+                  <c:v>5.9274612735134596E-11</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.5709002302992899E-10</c:v>
+                  <c:v>7.8545011514292694E-11</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0629971512554399E-10</c:v>
+                  <c:v>1.03149857557033E-10</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.6820034239799502E-10</c:v>
+                  <c:v>1.34100171193743E-10</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.4465569391969698E-10</c:v>
+                  <c:v>1.7232784692668501E-10</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.3695461096261302E-10</c:v>
+                  <c:v>2.1847730606663001E-10</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.4516371588242399E-10</c:v>
+                  <c:v>2.7258185847498099E-10</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.6721823100989403E-10</c:v>
+                  <c:v>3.3360911556268799E-10</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9779643165202195E-10</c:v>
+                  <c:v>3.9889821623543498E-10</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.2718214700309803E-10</c:v>
+                  <c:v>4.6359107405892699E-10</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0405827673192299E-9</c:v>
+                  <c:v>5.2029139393338801E-10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1186903192359101E-9</c:v>
+                  <c:v>5.5934533684427304E-10</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1404672006526999E-9</c:v>
+                  <c:v>5.7023379241282405E-10</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.08882618180883E-9</c:v>
+                  <c:v>5.4441306990452104E-10</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.5855828002507002E-10</c:v>
+                  <c:v>4.7927875197387001E-10</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.6346913449188996E-10</c:v>
+                  <c:v>3.8173401536191001E-10</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.3744250376854898E-10</c:v>
+                  <c:v>2.6872074946710798E-10</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.2496670416706001E-10</c:v>
+                  <c:v>1.6248294044273701E-10</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.63006509969205E-10</c:v>
+                  <c:v>8.1502944939840502E-11</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.5025787493151302E-11</c:v>
+                  <c:v>3.2512728187687802E-11</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.9600915837078301E-11</c:v>
+                  <c:v>9.8004000625327194E-12</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.1974245244438304E-12</c:v>
+                  <c:v>2.0986989568726299E-12</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.9288308972854499E-13</c:v>
+                  <c:v>2.9643983797663198E-13</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.0531818613118903E-14</c:v>
+                  <c:v>2.5265769441592098E-14</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.33621113374525E-15</c:v>
+                  <c:v>1.16810587889516E-15</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.1605417272391499E-17</c:v>
+                  <c:v>2.5810151190368899E-17</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.6603949967875098E-19</c:v>
+                  <c:v>2.4304024756913901E-19</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9837428187242899E-21</c:v>
+                  <c:v>2.1428873951109E-20</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.12602387518404E-21</c:v>
+                  <c:v>3.1373129691041499E-20</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-3.1729633849907301E-22</c:v>
+                  <c:v>4.8225284461506402E-20</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.0369649315326E-22</c:v>
+                  <c:v>7.2225449509688398E-20</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.5963244508388299E-22</c:v>
+                  <c:v>1.06688568788886E-19</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.00784189114485E-22</c:v>
+                  <c:v>1.5592880448726801E-19</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.19173911741377E-23</c:v>
+                  <c:v>2.25932679374483E-19</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.0860847098131602E-24</c:v>
+                  <c:v>3.2497485943401798E-19</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.1716201512237203E-24</c:v>
+                  <c:v>4.6444095452042703E-19</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.2215127863263001E-24</c:v>
+                  <c:v>6.5992697866790099E-19</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.9932456205509399E-24</c:v>
+                  <c:v>9.3270268917739003E-19</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.2265544727450999E-24</c:v>
+                  <c:v>1.3116510512640099E-18</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.6196297491831403E-25</c:v>
+                  <c:v>1.83582814806523E-18</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.3947617690488001E-25</c:v>
+                  <c:v>2.5578283714315001E-18</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.0486682279302701E-25</c:v>
+                  <c:v>3.5481907014656899E-18</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.2357910256847999E-25</c:v>
+                  <c:v>4.9011457681686897E-18</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.4575854795673505E-26</c:v>
+                  <c:v>6.7420831641096403E-18</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.7932632940012901E-25</c:v>
+                  <c:v>9.2372177341152001E-18</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.8489508294917401E-25</c:v>
+                  <c:v>1.26060566267731E-17</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.2517129725835798E-25</c:v>
+                  <c:v>1.7137420917238901E-17</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.1932357723879998E-25</c:v>
+                  <c:v>2.3209962901671899E-17</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.1799185688749698E-25</c:v>
+                  <c:v>3.1318349621357801E-17</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4899879256533999E-25</c:v>
+                  <c:v>4.2106564611278501E-17</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9.95820359424768E-26</c:v>
+                  <c:v>5.6410122013405995E-17</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6.3589269320262598E-26</c:v>
+                  <c:v>7.5309403825214701E-17</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.0504973002924902E-26</c:v>
+                  <c:v>1.00196835450106E-16</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.5737468780740001E-26</c:v>
+                  <c:v>1.32861224116098E-16</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.6335539986259401E-26</c:v>
+                  <c:v>1.7559331858590599E-16</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.03589693684333E-26</c:v>
+                  <c:v>2.31317530030005E-16</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6.5694321694176603E-27</c:v>
+                  <c:v>3.0375580871285199E-16</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.3187715291913599E-27</c:v>
+                  <c:v>3.9763093190238698E-16</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.8725339160083599E-27</c:v>
+                  <c:v>5.1891795756323897E-16</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.9097818102311102E-27</c:v>
+                  <c:v>6.7515438057714596E-16</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.27817293450604E-27</c:v>
+                  <c:v>8.7582163777418498E-16</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.5671402318572994E-28</c:v>
+                  <c:v>1.1328077563192499E-15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5.79015692146569E-28</c:v>
+                  <c:v>1.46100662334492E-15</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.9601826147903098E-28</c:v>
+                  <c:v>1.8789577752186001E-15</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.7386898045661101E-28</c:v>
+                  <c:v>2.4097771906297899E-15</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.7666123851185901E-28</c:v>
+                  <c:v>3.0821031900670701E-15</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.4104500623299692E-28</c:v>
+                  <c:v>3.9314333379650302E-15</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.2836286223928597E-28</c:v>
+                  <c:v>5.0015469733860899E-15</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.6709085421675301E-28</c:v>
+                  <c:v>6.3464129008659302E-15</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.5137531671095999E-28</c:v>
+                  <c:v>8.0322884664337094E-15</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.6550380906745902E-28</c:v>
+                  <c:v>1.0140432625365901E-14</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-2.2769636841013899E-20</c:v>
+                  <c:v>1.27701562320572E-14</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-1.8923543349797199E-28</c:v>
+                  <c:v>1.6042661329334901E-14</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-2.3045099873680599E-20</c:v>
+                  <c:v>2.0105416618408701E-14</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-9.1936182797472398E-29</c:v>
+                  <c:v>2.5137557860528299E-14</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-2.33193313688461E-20</c:v>
+                  <c:v>3.1356093172899297E-14</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.70463488568585E-29</c:v>
+                  <c:v>3.9023448820035298E-14</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-2.3592338168151699E-20</c:v>
+                  <c:v>4.8456179343214601E-14</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-2.23961638593241E-29</c:v>
+                  <c:v>6.0035436822591894E-14</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-2.3864127357732401E-20</c:v>
+                  <c:v>7.4219080758304599E-14</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.2171735813047E-29</c:v>
+                  <c:v>9.1556097752184306E-14</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-2.41347062440027E-20</c:v>
+                  <c:v>1.12703286906833E-13</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-8.1268796882517299E-30</c:v>
+                  <c:v>1.3844497284971E-13</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-2.4404082331243299E-20</c:v>
+                  <c:v>1.69715796756975E-13</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-2.8055984464860999E-30</c:v>
+                  <c:v>2.0762746154849599E-13</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2.46722633007565E-20</c:v>
+                  <c:v>2.5349959923807901E-13</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2.2159298550288799E-30</c:v>
+                  <c:v>3.0889577513502998E-13</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2.4939256991514499E-20</c:v>
+                  <c:v>3.7566493997265799E-13</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-1.4814132761604999E-30</c:v>
+                  <c:v>4.5598950861723902E-13</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2.52050713821921E-20</c:v>
+                  <c:v>5.5244054529661603E-13</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-7.3334296530851101E-31</c:v>
+                  <c:v>6.6804141964320003E-13</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.5469714574486001E-20</c:v>
+                  <c:v>8.0634061146650601E-13</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-7.0157113975719801E-31</c:v>
+                  <c:v>9.7149520862672104E-13</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2.5733194777632199E-20</c:v>
+                  <c:v>1.16836601287088E-12</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2.2919469117869499E-31</c:v>
+                  <c:v>1.40262593092196E-12</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2.5995520294036301E-20</c:v>
+                  <c:v>1.68088283446394E-12</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7.6390205684796803E-32</c:v>
+                  <c:v>2.0108185653781399E-12</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-2.6256699505942401E-20</c:v>
+                  <c:v>2.4013455554277802E-12</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-1.1666922491233299E-32</c:v>
+                  <c:v>2.86278252988693E-12</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-2.6516740863065799E-20</c:v>
+                  <c:v>3.4070508072037998E-12</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-1.5464314673768E-31</c:v>
+                  <c:v>4.0478925080298702E-12</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.67756528711259E-20</c:v>
+                  <c:v>4.8011108206848601E-12</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-1.5537138899790199E-31</c:v>
+                  <c:v>5.6848355491096803E-12</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.70334440812147E-20</c:v>
+                  <c:v>6.7198069763241099E-12</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.0032891304042201E-32</c:v>
+                  <c:v>7.9296878509207307E-12</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.7290123079946102E-20</c:v>
+                  <c:v>9.3413875438137907E-12</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>7.1716816304119597E-32</c:v>
+                  <c:v>1.09854048037173E-11</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.7545698480330902E-20</c:v>
+                  <c:v>1.2896175107532001E-11</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.54820393429198E-32</c:v>
+                  <c:v>1.5112412208920299E-11</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.7800178913328498E-20</c:v>
+                  <c:v>1.7677434392164699E-11</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.6027348255947501E-32</c:v>
+                  <c:v>2.0639448970005799E-11</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-2.80535730200298E-20</c:v>
+                  <c:v>2.4051762291940301E-11</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>7.1921446360710798E-33</c:v>
+                  <c:v>2.79728943998011E-11</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-2.8305889444426998E-20</c:v>
+                  <c:v>3.2466527747276003E-11</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.21056434091659E-32</c:v>
+                  <c:v>3.7601252010164703E-11</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-2.8557136826732002E-20</c:v>
+                  <c:v>4.3450008604585599E-11</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-2.2268564981977402E-34</c:v>
+                  <c:v>5.0089154188029703E-11</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-2.88073237972051E-20</c:v>
+                  <c:v>5.75970193065173E-11</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.4877808820391301E-32</c:v>
+                  <c:v>6.6051846828289203E-11</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-2.9056458970459698E-20</c:v>
+                  <c:v>7.5528930202927799E-11</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-4.6041762733007302E-33</c:v>
+                  <c:v>8.6096820274216194E-11</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-2.9304550940211698E-20</c:v>
+                  <c:v>9.7812386170475297E-11</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.86574463362513E-34</c:v>
+                  <c:v>1.1071461256878E-10</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-2.9551608274441901E-20</c:v>
+                  <c:v>1.2481694360372799E-10</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>6.0847349180484199E-33</c:v>
+                  <c:v>1.4009817344519001E-10</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2.9797639510945202E-20</c:v>
+                  <c:v>1.56491795936579E-10</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-7.8963127719876602E-33</c:v>
+                  <c:v>1.7387421172330399E-10</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-3.0042653153239497E-20</c:v>
+                  <c:v>1.9205200917155601E-10</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.5638942384654999E-33</c:v>
+                  <c:v>2.10749311881741E-10</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-3.0286657666810403E-20</c:v>
+                  <c:v>2.2959627371284001E-10</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-6.8370513025746804E-33</c:v>
+                  <c:v>2.4812064352321697E-10</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-3.0529661475668899E-20</c:v>
+                  <c:v>2.6574407315866298E-10</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1.8476890403964999E-33</c:v>
+                  <c:v>2.8178702836313599E-10</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-3.0771672959201502E-20</c:v>
+                  <c:v>2.9548380392910798E-10</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.16759502878476E-33</c:v>
+                  <c:v>3.0601270069716001E-10</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-3.1012700449292098E-20</c:v>
+                  <c:v>3.12541546191512E-10</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.1967638428166899E-33</c:v>
+                  <c:v>3.14291567888323E-10</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-3.1252752227698402E-20</c:v>
+                  <c:v>3.1061681462643902E-10</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0</c:v>
+                  <c:v>3.0109413051138E-10</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-3.1491836523664897E-20</c:v>
+                  <c:v>2.8561474964819499E-10</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-2.40741243048404E-35</c:v>
+                  <c:v>2.64461274962051E-10</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-3.1729961511756401E-20</c:v>
+                  <c:v>2.38355016409515E-10</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.0092655381050501E-35</c:v>
+                  <c:v>2.08452265633673E-10</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-3.1967135309898302E-20</c:v>
+                  <c:v>1.76277300335062E-10</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.44444745829042E-34</c:v>
+                  <c:v>1.4358658935614301E-10</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-3.2203365977608002E-20</c:v>
+                  <c:v>1.12174496101252E-10</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-2.2268564981977402E-34</c:v>
+                  <c:v>8.3650740799095999E-11</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-3.24386615144056E-20</c:v>
+                  <c:v>5.9231275720574704E-11</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0</c:v>
+                  <c:v>3.95915286327057E-11</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-3.2673029858391398E-20</c:v>
+                  <c:v>2.4821069619079401E-11</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>6.01853107621011E-36</c:v>
+                  <c:v>1.44913161011758E-11</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-3.29064788849788E-20</c:v>
+                  <c:v>7.8170791362925695E-12</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0</c:v>
+                  <c:v>3.8624093697481398E-12</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-3.31390164057718E-20</c:v>
+                  <c:v>1.7313692159317701E-12</c:v>
                 </c:pt>
                 <c:pt idx="221">
+                  <c:v>6.9672078774950899E-13</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.4878523123920598E-13</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.7829279609769795E-14</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.1033991829655301E-14</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.8358528327944303E-15</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>9.2992830543694692E-16</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.4683510273882501E-16</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7.0802526702789804E-17</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.8485091454386998E-18</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.4546732567554999E-19</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-8.8974579885373795E-21</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-3.4701898546725301E-22</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.7501718832279399E-20</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-1.9502046982212499E-22</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-1.7632953611807E-20</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-2.3876199747796002E-22</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-1.7785511907677001E-20</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-2.4574979173601499E-22</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.7844957519037099E-20</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-2.1621459714006798E-22</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.7927346880991899E-20</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.4298120523058899E-22</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-1.8022199231513199E-20</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-1.27853083300249E-22</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.8101462159026901E-20</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-1.07676387115878E-22</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-1.81749155806855E-20</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>6.7243367875305405E-24</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-1.8197727905903801E-20</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.4094826788679803E-24</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.83105073301414E-20</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.5020918010051898E-24</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.84221119788049E-20</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.3865181062423299E-24</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-1.8532424892333901E-20</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7.9659578705663598E-25</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-1.8641773485349601E-20</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1.59725799453259E-24</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-1.87503786310975E-20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.7159816845213901E-24</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-1.8858387873884901E-20</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.49955566848783E-24</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.8965869987102301E-20</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.04692282986881E-24</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.9072314820293701E-20</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>6.5486345605140998E-25</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-1.9178846361937701E-20</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4.1684057756608902E-25</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1.9285307464458201E-20</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.6521556152436202E-25</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.9391384193988399E-20</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.6729088535085401E-25</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.9497016601383899E-20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.0463729365997E-25</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-1.9602236268778201E-20</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>6.4911234004705199E-26</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.9707064965448201E-20</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.9945261887631399E-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-1.98115177693968E-20</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.4384973454354399E-26</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-1.99156053262258E-20</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.4774000991758799E-26</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-2.0019335347317901E-20</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>8.8864313943560098E-27</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-2.0122713661825299E-20</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.3079905797753398E-27</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-2.0225744911474399E-20</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.14837911725504E-27</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-2.0328432961856199E-20</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.8558953797412801E-27</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-2.0430781210311701E-20</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>8.4974892763450907E-27</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-2.05327859173389E-20</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>4.41590801714485E-26</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-2.0634429257684899E-20</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.3590206078705401E-26</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-2.07357894140851E-20</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.3157576982738199E-26</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-2.08368169690777E-20</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.5900582168764301E-26</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-2.0937515894579099E-20</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.0889280856180601E-26</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-2.1037889703167101E-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>7.4369083282530798E-27</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-2.1137941594128801E-20</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5.0616286907401799E-27</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-2.12376745260226E-20</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.4387378226267898E-27</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-2.13370912875555E-20</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.32931702448208E-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-2.1436194535858101E-20</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.57598451329862E-27</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-2.1534986840103101E-20</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1.06598806863324E-27</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-2.1633470690540499E-20</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7.1838095121983199E-28</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-2.1731648529174901E-20</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>4.9548037363679602E-28</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-2.1829522746847799E-20</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3.3615995556589399E-28</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-2.1927095695560501E-20</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.3382680547325099E-28</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-2.2024369690976599E-20</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1.65028272572958E-28</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-2.2121347019469101E-20</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.1584262179873301E-28</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-2.2218029937998201E-20</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>8.0170336720205002E-29</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-2.2314420677978E-20</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5.5909505544318397E-29</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-2.2410521444195399E-20</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>3.8814590246072702E-29</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-2.25063344171731E-20</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.7292305093662898E-29</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-2.26018617532341E-20</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2.01996166836261E-29</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-2.2697105585291999E-20</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.2714158935556E-29</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-2.2792068023129001E-20</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>9.9036012194631097E-30</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-2.28867511538866E-20</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6.7097954814993007E-30</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-2.29811570423791E-20</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4.8768759163638103E-30</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-2.3075287731408901E-20</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3.5509814832125702E-30</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-2.3169145242092999E-20</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2.1605924710486601E-30</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-2.32627315741359E-20</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.6799044310539101E-30</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-2.3356048706101501E-20</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.19615897727245E-30</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-2.3449098595690999E-20</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>5.8287066060664399E-31</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-2.3541883180002201E-20</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>5.18406174249358E-31</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-2.36344043757866E-20</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5.0689272430056797E-31</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-2.3726664079707001E-20</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3.6782252672257999E-31</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-2.38186641685823E-20</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.8516010855960401E-31</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-2.39104064996392E-20</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.44637338823481E-31</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-2.4001892910751499E-20</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.5012623916498499E-31</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-2.4093125220682801E-20</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3.5966741711431602E-32</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-2.41841052293227E-20</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2.6054221028913498E-32</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-2.4274834717921899E-20</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2.1179210857183299E-32</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-2.4365315449323501E-20</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>7.2312650880664398E-32</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-2.4455549168191399E-20</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>5.4708447482749897E-32</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-2.45455376012369E-20</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>2.35806047565912E-32</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-2.46352824574412E-20</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.9175040008805401E-32</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-2.4724785428276201E-20</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-2.6421351424562299E-33</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-2.48140481879221E-20</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.0267614016014401E-32</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-2.4903072393481899E-20</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.3619935825463399E-32</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-2.4991859685194299E-20</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>6.2231611328012504E-33</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-2.5080411686642699E-20</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.3517620797167901E-32</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-2.5168730004962001E-20</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>4.5138983071575799E-33</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-2.5256816231043199E-20</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>6.13890169773431E-34</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-2.53446719397347E-20</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-4.1527864425849696E-34</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-2.54322986900414E-20</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.9078743511586E-33</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-2.5519698025321E-20</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-3.1416732217816703E-33</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-2.56068714734778E-20</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>5.1759367255406904E-34</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-2.5693820547153899E-20</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-1.28796565030896E-33</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-2.57805467439182E-20</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-1.29398418138517E-33</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-2.5867051546452601E-20</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2.5277830520082398E-34</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>-2.59533364227357E-20</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>8.5463141282183505E-34</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-2.60394028262242E-20</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-6.0185310762101099E-35</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-2.6125252196032E-20</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-3.85185988877447E-34</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-2.6210885957106499E-20</c:v>
+                </c:pt>
+                <c:pt idx="416">
                   <c:v>-6.01853107621011E-36</c:v>
                 </c:pt>
-                <c:pt idx="222">
-                  <c:v>-3.3370650167577603E-20</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-3.3601387851544798E-20</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>-3.3831237072417998E-20</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>-3.4060205377902E-20</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>-3.4288300248126598E-20</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>-3.45155290952057E-20</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>-3.47418992628843E-20</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>-3.4967418026265598E-20</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>-3.5192092591615301E-20</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>-3.5415930096234401E-20</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>-3.5638937608398E-20</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>-3.5861122127353801E-20</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>-3.60824905833764E-20</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-3.6303049837873702E-20</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>-3.6522806683540502E-20</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>-3.6741767844556301E-20</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>-3.6959939976823901E-20</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>-3.7177329668245403E-20</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>-3.7393943439032998E-20</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>-3.7609787742050998E-20</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-3.7824868963187002E-20</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-3.8039193421750502E-20</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-3.82527673708948E-20</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-3.8465596998061798E-20</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>-3.8677688425446998E-20</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>-3.8889047710482499E-20</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>-3.9099680846337402E-20</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>-3.9309593762432002E-20</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>-3.9518792324966602E-20</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>-3.9727282337461899E-20</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>-1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>-3.9935069541309799E-20</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>-4.0142159616334398E-20</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>-4.03485581813605E-20</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>-4.0554270794789799E-20</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>-4.07593029551836E-20</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>-4.0963660101849803E-20</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>-4.1167347615435198E-20</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>-4.13703708185212E-20</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>-4.15727349762218E-20</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>-4.1774445296784498E-20</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>-4.19755069321917E-20</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>-4.2175924978764203E-20</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>-4.2375704477763501E-20</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>-4.2574850415994999E-20</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>-4.2773367726409801E-20</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>-4.2971261288705499E-20</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>-4.3168535929925697E-20</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>-1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>-4.33651964250563E-20</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>-4.3561247497621503E-20</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>-4.3756693820274801E-20</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>-4.3951540015388402E-20</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>-4.4145790655639103E-20</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>-4.4339450264590503E-20</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>-4.4532523317271201E-20</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>-4.47250142407492E-20</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>-4.4916927414702402E-20</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>-4.5108267171984301E-20</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>-1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>-4.5299037799185102E-20</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>-4.5489243537188603E-20</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>-4.5678888581724001E-20</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>-4.5867977083912399E-20</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>-4.6056513150808901E-20</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>-4.62445008459395E-20</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>-4.6431944189831902E-20</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>-4.6618847160542199E-20</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>-4.68052136941757E-20</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>-4.6991047685401899E-20</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>-1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>-4.7176352987965003E-20</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>-4.7361133415187903E-20</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>-4.7545392740471298E-20</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>-4.7729134697787201E-20</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>-4.7912362982166497E-20</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>-4.80950812501818E-20</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>-4.8277293120423298E-20</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>-4.84590021739708E-20</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>-1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>-4.8640211954858502E-20</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>-1.20370621524202E-35</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>-4.8820925970535497E-20</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>-4.9001147692320198E-20</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>-4.9180880555848999E-20</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>-4.9360127961520001E-20</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>-4.9538893274930798E-20</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>-4.9717179827311299E-20</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>-4.9894990915950101E-20</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>-5.00723298046171E-20</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>-5.0249199723979402E-20</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>-5.0425603872012003E-20</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>-5.0601545414404399E-20</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>-5.0777027484960301E-20</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>-6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>-5.0952053185993403E-20</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>-5.1126625588717701E-20</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>-5.1300747733632003E-20</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>-5.1474422630900599E-20</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>-5.1647653260727799E-20</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>-5.1820442573728598E-20</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>-5.1992793491293098E-20</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>-5.2164708905947498E-20</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>6.01853107621011E-36</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>-5.2336191681709199E-20</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>-5.2507244654437702E-20</c:v>
-                </c:pt>
                 <c:pt idx="417">
-                  <c:v>-6.01853107621011E-36</c:v>
+                  <c:v>-2.6296305520402899E-20</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>-5.2677870632180701E-20</c:v>
+                  <c:v>2.9490802273429502E-34</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>-6.01853107621011E-36</c:v>
+                  <c:v>-2.6381512283056401E-20</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>-5.2848072395515303E-20</c:v>
+                  <c:v>1.5648180798146199E-34</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>0</c:v>
+                  <c:v>-2.6466507628551301E-20</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>-5.3017852697885303E-20</c:v>
+                  <c:v>1.8055593228630299E-35</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>0</c:v>
+                  <c:v>-2.6551292926888399E-20</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>-5.3187214265932802E-20</c:v>
+                  <c:v>-6.0185310762101099E-35</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>-6.01853107621011E-36</c:v>
+                  <c:v>-2.6635869534750001E-20</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>-5.33561597998264E-20</c:v>
+                  <c:v>1.62500339057673E-34</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>0</c:v>
+                  <c:v>-2.6720238795662799E-20</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>-5.3524691973584703E-20</c:v>
+                  <c:v>-2.4675977412461399E-34</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>6.01853107621011E-36</c:v>
+                  <c:v>-2.6804402040158599E-20</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>-5.3692813435394703E-20</c:v>
+                  <c:v>-1.5648180798146199E-34</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>6.01853107621011E-36</c:v>
+                  <c:v>-2.68883605859321E-20</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>-5.3860526807926998E-20</c:v>
+                  <c:v>-1.5046327690525201E-34</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>0</c:v>
+                  <c:v>-2.6972115737997801E-20</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>-5.4027834688645798E-20</c:v>
+                  <c:v>5.4166779685890998E-35</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>-6.01853107621011E-36</c:v>
+                  <c:v>-2.7055668788843801E-20</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>-5.4194739650115299E-20</c:v>
+                  <c:v>1.2223636615782701E-32</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>0</c:v>
+                  <c:v>-2.71390210185839E-20</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>-5.4361244240301602E-20</c:v>
+                  <c:v>-1.3252805429814601E-32</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>0</c:v>
+                  <c:v>-2.7222173695107602E-20</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>-5.4527350982870294E-20</c:v>
+                  <c:v>1.7345406561637499E-32</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>0</c:v>
+                  <c:v>-2.7305128074227901E-20</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>-5.4693062377480705E-20</c:v>
+                  <c:v>7.4277099423939398E-31</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>1.20370621524202E-35</c:v>
+                  <c:v>-2.7387885399827203E-20</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>-5.4858380900075402E-20</c:v>
+                  <c:v>-2.7429190553040798E-20</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>1.20370621524202E-35</c:v>
+                  <c:v>-2.7470446904001298E-20</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>-5.5023309003165895E-20</c:v>
+                  <c:v>-2.7511654604893802E-20</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>0</c:v>
+                  <c:v>-2.7552813807201398E-20</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>-5.5187849116115004E-20</c:v>
+                  <c:v>-2.7593924661675398E-20</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>0</c:v>
+                  <c:v>-2.7634987318373802E-20</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>-5.5352003645414602E-20</c:v>
+                  <c:v>-2.7676001926631401E-20</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>-1.20370621524202E-35</c:v>
+                  <c:v>-2.77169686350983E-20</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>-5.5515774974959996E-20</c:v>
+                  <c:v>-2.7757887591709599E-20</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>0</c:v>
+                  <c:v>-2.7798758943724197E-20</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>-5.5679165466320299E-20</c:v>
+                  <c:v>-2.7839582837694499E-20</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>0</c:v>
+                  <c:v>-2.7880359419504799E-20</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>-5.5842177459005501E-20</c:v>
+                  <c:v>-2.7921088834341198E-20</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>0</c:v>
+                  <c:v>-2.79617712267297E-20</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>-5.6004813270729506E-20</c:v>
+                  <c:v>-2.8002406740506402E-20</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>0</c:v>
+                  <c:v>-2.8042995518855601E-20</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>-5.6167075197669603E-20</c:v>
+                  <c:v>-2.8083537704279003E-20</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>-1.20370621524202E-35</c:v>
+                  <c:v>-2.8124033438635099E-20</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>-5.63289655147227E-20</c:v>
+                  <c:v>-2.81644828631075E-20</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>0</c:v>
+                  <c:v>-2.8204886118244099E-20</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>-5.6490486475757797E-20</c:v>
+                  <c:v>-2.8245243343926198E-20</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>0</c:v>
+                  <c:v>-2.8285554679406802E-20</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>-5.6651640313865003E-20</c:v>
+                  <c:v>-2.8325820263280198E-20</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>0</c:v>
+                  <c:v>-2.8366040233519798E-20</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>-5.6812429241601098E-20</c:v>
+                  <c:v>-2.8406214727447903E-20</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>0</c:v>
+                  <c:v>-2.8446343881773803E-20</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>-5.6972855451232098E-20</c:v>
+                  <c:v>-2.8486427832562403E-20</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>0</c:v>
+                  <c:v>-2.8526466715273799E-20</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>-5.7132921114972099E-20</c:v>
+                  <c:v>-2.85664606647307E-20</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>-1.20370621524202E-35</c:v>
+                  <c:v>-2.8606409815158302E-20</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>-5.7292628385219006E-20</c:v>
+                  <c:v>-2.86463143001518E-20</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>-1.20370621524202E-35</c:v>
+                  <c:v>-2.8686174252715903E-20</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>-5.7451979394787205E-20</c:v>
+                  <c:v>-2.87259898052328E-20</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>0</c:v>
+                  <c:v>-2.8765761089501003E-20</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>-5.7610976257136605E-20</c:v>
+                  <c:v>-2.8805488236703702E-20</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>0</c:v>
+                  <c:v>-2.8845171377447499E-20</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>-5.7769621066599203E-20</c:v>
+                  <c:v>-2.8884810641730498E-20</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>1.20370621524202E-35</c:v>
+                  <c:v>-2.8924406158981398E-20</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>-5.7927915898602304E-20</c:v>
+                  <c:v>-2.8963958058026903E-20</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>0</c:v>
+                  <c:v>-2.90034664671313E-20</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>-5.8085862809887904E-20</c:v>
+                  <c:v>-2.9042931513963901E-20</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>0</c:v>
+                  <c:v>-2.9082353325638002E-20</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>-5.8243463838730905E-20</c:v>
+                  <c:v>-2.9121732028678799E-20</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>0</c:v>
+                  <c:v>-2.91610677490622E-20</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>-5.8400721005152296E-20</c:v>
+                  <c:v>-2.9200360612182302E-20</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>1.20370621524202E-35</c:v>
+                  <c:v>-2.9239610742890799E-20</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>-5.8557636311131095E-20</c:v>
+                  <c:v>-2.9278818265463799E-20</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>0</c:v>
+                  <c:v>-2.93179833036418E-20</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>-5.8714211740812199E-20</c:v>
+                  <c:v>-2.93571059805959E-20</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>0</c:v>
+                  <c:v>-2.9396186418967899E-20</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>-5.8870449260712396E-20</c:v>
+                  <c:v>-2.9435224740836802E-20</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>-2.40741243048404E-35</c:v>
+                  <c:v>-2.9474221067758501E-20</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>-5.9026350819923103E-20</c:v>
+                  <c:v>-2.9513175520732201E-20</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>0</c:v>
+                  <c:v>-2.9552088220240502E-20</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>-5.9181918350309801E-20</c:v>
+                  <c:v>-2.9590959286215198E-20</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>0</c:v>
+                  <c:v>-2.96297888380776E-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8662,10 +8662,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C501"/>
     </sheetView>
   </sheetViews>
@@ -14189,11 +14189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>8.4738143920423306E-31</v>
+        <v>4.23690719602116E-31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14228,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>4.1531927154430098E-30</v>
+        <v>2.0765963577215E-30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14239,7 +14239,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>1.9148515005864701E-29</v>
+        <v>9.5742575029323504E-30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14250,7 +14250,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>8.33375697671585E-29</v>
+        <v>4.16687848835792E-29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14261,7 +14261,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>3.4347157067058702E-28</v>
+        <v>1.7173578533529299E-28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14272,7 +14272,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1.34454489227959E-27</v>
+        <v>6.7227244613979597E-28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14283,7 +14283,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>5.0129400903151097E-27</v>
+        <v>2.5064700451575499E-27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -14294,7 +14294,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>1.7846640945479101E-26</v>
+        <v>8.9233204727395894E-27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -14305,7 +14305,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>6.08141245181355E-26</v>
+        <v>3.0407062259067698E-26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -14316,7 +14316,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>1.9879403460313699E-25</v>
+        <v>9.9397017301568701E-26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -14327,7 +14327,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>6.24677131438318E-25</v>
+        <v>3.12338565719159E-25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -14338,7 +14338,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>1.8906211584628198E-24</v>
+        <v>9.4531057923141102E-25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -14349,7 +14349,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>5.5212694173978997E-24</v>
+        <v>2.7606347086989499E-24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -14360,7 +14360,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>1.5584672102849999E-23</v>
+        <v>7.7923360514250201E-24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -14371,7 +14371,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>4.25866338387796E-23</v>
+        <v>2.12933169193898E-23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -14382,7 +14382,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>1.12827732769407E-22</v>
+        <v>5.6413866384703898E-23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>2.9022572677389402E-22</v>
+        <v>1.4511286338694701E-22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -14404,7 +14404,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>7.25784341092905E-22</v>
+        <v>3.6289217054645198E-22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -14415,7 +14415,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>1.7667344998603299E-21</v>
+        <v>8.8336724993016794E-22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -14426,7 +14426,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>4.1911773448190304E-21</v>
+        <v>2.0955886724095099E-21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -14437,7 +14437,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>9.70022466927241E-21</v>
+        <v>4.8501123346361997E-21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -14448,7 +14448,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>2.1926104057362301E-20</v>
+        <v>1.09630520286811E-20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -14459,7 +14459,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>4.8451008824345198E-20</v>
+        <v>2.4225504412172599E-20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -14470,7 +14470,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0476354067469E-19</v>
+        <v>5.2381770337345299E-20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -14481,7 +14481,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <v>2.2185333497222501E-19</v>
+        <v>1.10926667486112E-19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -14492,7 +14492,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <v>4.6050279185164597E-19</v>
+        <v>2.3025139592582299E-19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -14503,7 +14503,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <v>9.3767447006689901E-19</v>
+        <v>4.6883723503344902E-19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -14514,7 +14514,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <v>1.8743497029756298E-18</v>
+        <v>9.3717485148781799E-19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14525,7 +14525,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <v>3.68075040771041E-18</v>
+        <v>1.8403752038552E-18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -14536,7 +14536,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>7.1056240140327793E-18</v>
+        <v>3.5528120070163897E-18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -14547,7 +14547,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>1.34935564945946E-17</v>
+        <v>6.7467782472973198E-18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -14558,7 +14558,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <v>2.52216502195365E-17</v>
+        <v>1.2610825109768199E-17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -14569,7 +14569,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>4.6429609003804299E-17</v>
+        <v>2.32148045019021E-17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -14580,7 +14580,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>8.42229583615306E-17</v>
+        <v>4.21114791807653E-17</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -14591,7 +14591,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>1.50628783390587E-16</v>
+        <v>7.53143916952935E-17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -14602,7 +14602,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>2.65732574020838E-16</v>
+        <v>1.32866287010419E-16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -14613,7 +14613,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <v>4.6264534765724895E-16</v>
+        <v>2.3132267382862398E-16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -14624,7 +14624,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>7.95272349288174E-16</v>
+        <v>3.97636174644087E-16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -14635,7 +14635,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <v>1.3503195492355499E-15</v>
+        <v>6.75159774617779E-16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -14646,7 +14646,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <v>2.26563758539219E-15</v>
+        <v>1.1328187926960901E-15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -14657,7 +14657,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <v>3.7579391728003598E-15</v>
+        <v>1.8789695864001799E-15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -14668,7 +14668,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1">
-        <v>6.1642337269507502E-15</v>
+        <v>3.08211686347537E-15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -14679,7 +14679,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="1">
-        <v>1.00031307259346E-14</v>
+        <v>5.0015653629673301E-15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -14690,7 +14690,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1">
-        <v>1.6064637808371999E-14</v>
+        <v>8.0323189041860704E-15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -14701,7 +14701,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="1">
-        <v>2.55404343434436E-14</v>
+        <v>1.27702171717219E-14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -14712,7 +14712,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="1">
-        <v>4.0211107188132997E-14</v>
+        <v>2.0105553594066899E-14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -14723,7 +14723,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="1">
-        <v>6.2712832807678305E-14</v>
+        <v>3.1356416403840503E-14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -14734,7 +14734,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>9.6913901427111696E-14</v>
+        <v>4.8456950713558997E-14</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -14745,7 +14745,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="1">
-        <v>1.4844182281399299E-13</v>
+        <v>7.4220911407003499E-14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -14756,7 +14756,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="1">
-        <v>2.2541515662923499E-13</v>
+        <v>1.12707578314631E-13</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -14767,7 +14767,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="1">
-        <v>3.3945141769970998E-13</v>
+        <v>1.6972570884988301E-13</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -14778,7 +14778,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="1">
-        <v>5.0704428102522102E-13</v>
+        <v>2.5352214051266099E-13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -14789,7 +14789,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="1">
-        <v>7.5143081694418599E-13</v>
+        <v>3.7571540847218402E-13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -14800,7 +14800,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="1">
-        <v>1.10510363780414E-12</v>
+        <v>5.5255181890223803E-13</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -14811,7 +14811,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="1">
-        <v>1.61316458436299E-12</v>
+        <v>8.0658229218178198E-13</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -14822,7 +14822,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="1">
-        <v>2.3377665863515402E-12</v>
+        <v>1.1688832931762499E-12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -14833,7 +14833,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="1">
-        <v>3.3639485553707201E-12</v>
+        <v>1.6819742776861501E-12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14844,7 +14844,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="1">
-        <v>4.8072331206293001E-12</v>
+        <v>2.40361656031593E-12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14855,7 +14855,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="1">
-        <v>6.8234244729617201E-12</v>
+        <v>3.4117122364828799E-12</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14866,7 +14866,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="1">
-        <v>9.6211044044777298E-12</v>
+        <v>4.8105522022419999E-12</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14877,7 +14877,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="1">
-        <v>1.34773611944795E-11</v>
+        <v>6.7386805972445702E-12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -14888,7 +14888,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="1">
-        <v>1.8757266440910599E-11</v>
+        <v>9.3786332204626003E-12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -14899,7 +14899,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="1">
-        <v>2.5937484253084699E-11</v>
+        <v>1.29687421265537E-11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -14910,7 +14910,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="1">
-        <v>3.5634063887098103E-11</v>
+        <v>1.78170319435669E-11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14921,7 +14921,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="1">
-        <v>4.8633784040804501E-11</v>
+        <v>2.4316892020429001E-11</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -14932,7 +14932,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="1">
-        <v>6.5927157663632096E-11</v>
+        <v>3.2963578831861401E-11</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14943,7 +14943,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="1">
-        <v>8.8739037456521602E-11</v>
+        <v>4.4369518728315498E-11</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -14954,7 +14954,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="1">
-        <v>1.1854922547008401E-10</v>
+        <v>5.9274612735134596E-11</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -14965,7 +14965,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="1">
-        <v>1.5709002302992899E-10</v>
+        <v>7.8545011514292694E-11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -14976,7 +14976,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="1">
-        <v>2.0629971512554399E-10</v>
+        <v>1.03149857557033E-10</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -14987,7 +14987,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="1">
-        <v>2.6820034239799502E-10</v>
+        <v>1.34100171193743E-10</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -14998,7 +14998,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="1">
-        <v>3.4465569391969698E-10</v>
+        <v>1.7232784692668501E-10</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -15009,7 +15009,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="1">
-        <v>4.3695461096261302E-10</v>
+        <v>2.1847730606663001E-10</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -15020,7 +15020,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="1">
-        <v>5.4516371588242399E-10</v>
+        <v>2.7258185847498099E-10</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -15031,7 +15031,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="1">
-        <v>6.6721823100989403E-10</v>
+        <v>3.3360911556268799E-10</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -15042,7 +15042,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1">
-        <v>7.9779643165202195E-10</v>
+        <v>3.9889821623543498E-10</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -15053,7 +15053,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="1">
-        <v>9.2718214700309803E-10</v>
+        <v>4.6359107405892699E-10</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -15064,7 +15064,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="1">
-        <v>1.0405827673192299E-9</v>
+        <v>5.2029139393338801E-10</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -15075,7 +15075,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="1">
-        <v>1.1186903192359101E-9</v>
+        <v>5.5934533684427304E-10</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -15086,7 +15086,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="1">
-        <v>1.1404672006526999E-9</v>
+        <v>5.7023379241282405E-10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -15097,7 +15097,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="1">
-        <v>1.08882618180883E-9</v>
+        <v>5.4441306990452104E-10</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -15108,7 +15108,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="1">
-        <v>9.5855828002507002E-10</v>
+        <v>4.7927875197387001E-10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -15119,7 +15119,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="1">
-        <v>7.6346913449188996E-10</v>
+        <v>3.8173401536191001E-10</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -15130,7 +15130,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="1">
-        <v>5.3744250376854898E-10</v>
+        <v>2.6872074946710798E-10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -15141,7 +15141,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="1">
-        <v>3.2496670416706001E-10</v>
+        <v>1.6248294044273701E-10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -15152,7 +15152,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="1">
-        <v>1.63006509969205E-10</v>
+        <v>8.1502944939840502E-11</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -15163,7 +15163,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="1">
-        <v>6.5025787493151302E-11</v>
+        <v>3.2512728187687802E-11</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -15174,7 +15174,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="1">
-        <v>1.9600915837078301E-11</v>
+        <v>9.8004000625327194E-12</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -15185,7 +15185,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="1">
-        <v>4.1974245244438304E-12</v>
+        <v>2.0986989568726299E-12</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -15196,7 +15196,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="1">
-        <v>5.9288308972854499E-13</v>
+        <v>2.9643983797663198E-13</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -15207,7 +15207,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="1">
-        <v>5.0531818613118903E-14</v>
+        <v>2.5265769441592098E-14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -15218,7 +15218,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="1">
-        <v>2.33621113374525E-15</v>
+        <v>1.16810587889516E-15</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -15229,7 +15229,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="1">
-        <v>5.1605417272391499E-17</v>
+        <v>2.5810151190368899E-17</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -15240,7 +15240,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="1">
-        <v>4.6603949967875098E-19</v>
+        <v>2.4304024756913901E-19</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -15251,7 +15251,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="1">
-        <v>1.9837428187242899E-21</v>
+        <v>2.1428873951109E-20</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -15262,7 +15262,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="1">
-        <v>-1.12602387518404E-21</v>
+        <v>3.1373129691041499E-20</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -15273,7 +15273,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="1">
-        <v>-3.1729633849907301E-22</v>
+        <v>4.8225284461506402E-20</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -15284,7 +15284,7 @@
         <v>97</v>
       </c>
       <c r="C99" s="1">
-        <v>-2.0369649315326E-22</v>
+        <v>7.2225449509688398E-20</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -15295,7 +15295,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="1">
-        <v>-1.5963244508388299E-22</v>
+        <v>1.06688568788886E-19</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -15306,7 +15306,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="1">
-        <v>-1.00784189114485E-22</v>
+        <v>1.5592880448726801E-19</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -15317,7 +15317,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="1">
-        <v>1.19173911741377E-23</v>
+        <v>2.25932679374483E-19</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -15328,7 +15328,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="1">
-        <v>8.0860847098131602E-24</v>
+        <v>3.2497485943401798E-19</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -15339,7 +15339,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="1">
-        <v>5.1716201512237203E-24</v>
+        <v>4.6444095452042703E-19</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -15350,7 +15350,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="1">
-        <v>3.2215127863263001E-24</v>
+        <v>6.5992697866790099E-19</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -15361,7 +15361,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="1">
-        <v>1.9932456205509399E-24</v>
+        <v>9.3270268917739003E-19</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -15372,7 +15372,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="1">
-        <v>1.2265544727450999E-24</v>
+        <v>1.3116510512640099E-18</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -15383,7 +15383,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="1">
-        <v>5.6196297491831403E-25</v>
+        <v>1.83582814806523E-18</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -15394,7 +15394,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="1">
-        <v>3.3947617690488001E-25</v>
+        <v>2.5578283714315001E-18</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -15405,7 +15405,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="1">
-        <v>2.0486682279302701E-25</v>
+        <v>3.5481907014656899E-18</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -15416,7 +15416,7 @@
         <v>109</v>
       </c>
       <c r="C111" s="1">
-        <v>1.2357910256847999E-25</v>
+        <v>4.9011457681686897E-18</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -15427,7 +15427,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="1">
-        <v>7.4575854795673505E-26</v>
+        <v>6.7420831641096403E-18</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -15438,7 +15438,7 @@
         <v>111</v>
       </c>
       <c r="C113" s="1">
-        <v>1.7932632940012901E-25</v>
+        <v>9.2372177341152001E-18</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -15449,7 +15449,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="1">
-        <v>3.8489508294917401E-25</v>
+        <v>1.26060566267731E-17</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -15460,7 +15460,7 @@
         <v>113</v>
       </c>
       <c r="C115" s="1">
-        <v>4.2517129725835798E-25</v>
+        <v>1.7137420917238901E-17</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -15471,7 +15471,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="1">
-        <v>3.1932357723879998E-25</v>
+        <v>2.3209962901671899E-17</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -15482,7 +15482,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="1">
-        <v>2.1799185688749698E-25</v>
+        <v>3.1318349621357801E-17</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -15493,7 +15493,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="1">
-        <v>1.4899879256533999E-25</v>
+        <v>4.2106564611278501E-17</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -15504,7 +15504,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="1">
-        <v>9.95820359424768E-26</v>
+        <v>5.6410122013405995E-17</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -15515,7 +15515,7 @@
         <v>118</v>
       </c>
       <c r="C120" s="1">
-        <v>6.3589269320262598E-26</v>
+        <v>7.5309403825214701E-17</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -15526,7 +15526,7 @@
         <v>119</v>
       </c>
       <c r="C121" s="1">
-        <v>4.0504973002924902E-26</v>
+        <v>1.00196835450106E-16</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -15537,7 +15537,7 @@
         <v>120</v>
       </c>
       <c r="C122" s="1">
-        <v>2.5737468780740001E-26</v>
+        <v>1.32861224116098E-16</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -15548,7 +15548,7 @@
         <v>121</v>
       </c>
       <c r="C123" s="1">
-        <v>1.6335539986259401E-26</v>
+        <v>1.7559331858590599E-16</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -15559,7 +15559,7 @@
         <v>122</v>
       </c>
       <c r="C124" s="1">
-        <v>1.03589693684333E-26</v>
+        <v>2.31317530030005E-16</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -15570,7 +15570,7 @@
         <v>123</v>
       </c>
       <c r="C125" s="1">
-        <v>6.5694321694176603E-27</v>
+        <v>3.0375580871285199E-16</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -15581,7 +15581,7 @@
         <v>124</v>
       </c>
       <c r="C126" s="1">
-        <v>4.3187715291913599E-27</v>
+        <v>3.9763093190238698E-16</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -15592,7 +15592,7 @@
         <v>125</v>
       </c>
       <c r="C127" s="1">
-        <v>2.8725339160083599E-27</v>
+        <v>5.1891795756323897E-16</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -15603,7 +15603,7 @@
         <v>126</v>
       </c>
       <c r="C128" s="1">
-        <v>1.9097818102311102E-27</v>
+        <v>6.7515438057714596E-16</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -15614,7 +15614,7 @@
         <v>127</v>
       </c>
       <c r="C129" s="1">
-        <v>1.27817293450604E-27</v>
+        <v>8.7582163777418498E-16</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -15625,7 +15625,7 @@
         <v>128</v>
       </c>
       <c r="C130" s="1">
-        <v>8.5671402318572994E-28</v>
+        <v>1.1328077563192499E-15</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -15636,7 +15636,7 @@
         <v>129</v>
       </c>
       <c r="C131" s="1">
-        <v>5.79015692146569E-28</v>
+        <v>1.46100662334492E-15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -15647,7 +15647,7 @@
         <v>130</v>
       </c>
       <c r="C132" s="1">
-        <v>3.9601826147903098E-28</v>
+        <v>1.8789577752186001E-15</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -15658,7 +15658,7 @@
         <v>131</v>
       </c>
       <c r="C133" s="1">
-        <v>2.7386898045661101E-28</v>
+        <v>2.4097771906297899E-15</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
         <v>132</v>
       </c>
       <c r="C134" s="1">
-        <v>1.7666123851185901E-28</v>
+        <v>3.0821031900670701E-15</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -15680,7 +15680,7 @@
         <v>133</v>
       </c>
       <c r="C135" s="1">
-        <v>8.4104500623299692E-28</v>
+        <v>3.9314333379650302E-15</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -15691,7 +15691,7 @@
         <v>134</v>
       </c>
       <c r="C136" s="1">
-        <v>6.2836286223928597E-28</v>
+        <v>5.0015469733860899E-15</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -15702,7 +15702,7 @@
         <v>135</v>
       </c>
       <c r="C137" s="1">
-        <v>4.6709085421675301E-28</v>
+        <v>6.3464129008659302E-15</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -15713,7 +15713,7 @@
         <v>136</v>
       </c>
       <c r="C138" s="1">
-        <v>3.5137531671095999E-28</v>
+        <v>8.0322884664337094E-15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -15724,7 +15724,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="1">
-        <v>2.6550380906745902E-28</v>
+        <v>1.0140432625365901E-14</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -15735,7 +15735,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="1">
-        <v>-2.2769636841013899E-20</v>
+        <v>1.27701562320572E-14</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -15746,7 +15746,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="1">
-        <v>-1.8923543349797199E-28</v>
+        <v>1.6042661329334901E-14</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -15757,7 +15757,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="1">
-        <v>-2.3045099873680599E-20</v>
+        <v>2.0105416618408701E-14</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -15768,7 +15768,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="1">
-        <v>-9.1936182797472398E-29</v>
+        <v>2.5137557860528299E-14</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -15779,7 +15779,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="1">
-        <v>-2.33193313688461E-20</v>
+        <v>3.1356093172899297E-14</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -15790,7 +15790,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="1">
-        <v>-4.70463488568585E-29</v>
+        <v>3.9023448820035298E-14</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -15801,7 +15801,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="1">
-        <v>-2.3592338168151699E-20</v>
+        <v>4.8456179343214601E-14</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -15812,7 +15812,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="1">
-        <v>-2.23961638593241E-29</v>
+        <v>6.0035436822591894E-14</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -15823,7 +15823,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="1">
-        <v>-2.3864127357732401E-20</v>
+        <v>7.4219080758304599E-14</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -15834,7 +15834,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="1">
-        <v>-1.2171735813047E-29</v>
+        <v>9.1556097752184306E-14</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -15845,7 +15845,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="1">
-        <v>-2.41347062440027E-20</v>
+        <v>1.12703286906833E-13</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -15856,7 +15856,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="1">
-        <v>-8.1268796882517299E-30</v>
+        <v>1.3844497284971E-13</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -15867,7 +15867,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="1">
-        <v>-2.4404082331243299E-20</v>
+        <v>1.69715796756975E-13</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -15878,7 +15878,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="1">
-        <v>-2.8055984464860999E-30</v>
+        <v>2.0762746154849599E-13</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -15889,7 +15889,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="1">
-        <v>-2.46722633007565E-20</v>
+        <v>2.5349959923807901E-13</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -15900,7 +15900,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="1">
-        <v>-2.2159298550288799E-30</v>
+        <v>3.0889577513502998E-13</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -15911,7 +15911,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="1">
-        <v>-2.4939256991514499E-20</v>
+        <v>3.7566493997265799E-13</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -15922,7 +15922,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="1">
-        <v>-1.4814132761604999E-30</v>
+        <v>4.5598950861723902E-13</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -15933,7 +15933,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="1">
-        <v>-2.52050713821921E-20</v>
+        <v>5.5244054529661603E-13</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -15944,7 +15944,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="1">
-        <v>-7.3334296530851101E-31</v>
+        <v>6.6804141964320003E-13</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -15955,7 +15955,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="1">
-        <v>-2.5469714574486001E-20</v>
+        <v>8.0634061146650601E-13</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -15966,7 +15966,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="1">
-        <v>-7.0157113975719801E-31</v>
+        <v>9.7149520862672104E-13</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -15977,7 +15977,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="1">
-        <v>-2.5733194777632199E-20</v>
+        <v>1.16836601287088E-12</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -15988,7 +15988,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="1">
-        <v>-2.2919469117869499E-31</v>
+        <v>1.40262593092196E-12</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -15999,7 +15999,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="1">
-        <v>-2.5995520294036301E-20</v>
+        <v>1.68088283446394E-12</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -16010,7 +16010,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="1">
-        <v>7.6390205684796803E-32</v>
+        <v>2.0108185653781399E-12</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -16021,7 +16021,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="1">
-        <v>-2.6256699505942401E-20</v>
+        <v>2.4013455554277802E-12</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -16032,7 +16032,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="1">
-        <v>-1.1666922491233299E-32</v>
+        <v>2.86278252988693E-12</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -16043,7 +16043,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="1">
-        <v>-2.6516740863065799E-20</v>
+        <v>3.4070508072037998E-12</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -16054,7 +16054,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="1">
-        <v>-1.5464314673768E-31</v>
+        <v>4.0478925080298702E-12</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -16065,7 +16065,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="1">
-        <v>-2.67756528711259E-20</v>
+        <v>4.8011108206848601E-12</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -16076,7 +16076,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="1">
-        <v>-1.5537138899790199E-31</v>
+        <v>5.6848355491096803E-12</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -16087,7 +16087,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="1">
-        <v>-2.70334440812147E-20</v>
+        <v>6.7198069763241099E-12</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -16098,7 +16098,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="1">
-        <v>-1.0032891304042201E-32</v>
+        <v>7.9296878509207307E-12</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -16109,7 +16109,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="1">
-        <v>-2.7290123079946102E-20</v>
+        <v>9.3413875438137907E-12</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -16120,7 +16120,7 @@
         <v>173</v>
       </c>
       <c r="C175" s="1">
-        <v>7.1716816304119597E-32</v>
+        <v>1.09854048037173E-11</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -16131,7 +16131,7 @@
         <v>174</v>
       </c>
       <c r="C176" s="1">
-        <v>-2.7545698480330902E-20</v>
+        <v>1.2896175107532001E-11</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -16142,7 +16142,7 @@
         <v>175</v>
       </c>
       <c r="C177" s="1">
-        <v>4.54820393429198E-32</v>
+        <v>1.5112412208920299E-11</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -16153,7 +16153,7 @@
         <v>176</v>
       </c>
       <c r="C178" s="1">
-        <v>-2.7800178913328498E-20</v>
+        <v>1.7677434392164699E-11</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -16164,7 +16164,7 @@
         <v>177</v>
       </c>
       <c r="C179" s="1">
-        <v>1.6027348255947501E-32</v>
+        <v>2.0639448970005799E-11</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -16175,7 +16175,7 @@
         <v>178</v>
       </c>
       <c r="C180" s="1">
-        <v>-2.80535730200298E-20</v>
+        <v>2.4051762291940301E-11</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -16186,7 +16186,7 @@
         <v>179</v>
       </c>
       <c r="C181" s="1">
-        <v>7.1921446360710798E-33</v>
+        <v>2.79728943998011E-11</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -16197,7 +16197,7 @@
         <v>180</v>
       </c>
       <c r="C182" s="1">
-        <v>-2.8305889444426998E-20</v>
+        <v>3.2466527747276003E-11</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -16208,7 +16208,7 @@
         <v>181</v>
       </c>
       <c r="C183" s="1">
-        <v>4.21056434091659E-32</v>
+        <v>3.7601252010164703E-11</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -16219,7 +16219,7 @@
         <v>182</v>
       </c>
       <c r="C184" s="1">
-        <v>-2.8557136826732002E-20</v>
+        <v>4.3450008604585599E-11</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -16230,7 +16230,7 @@
         <v>183</v>
       </c>
       <c r="C185" s="1">
-        <v>-2.2268564981977402E-34</v>
+        <v>5.0089154188029703E-11</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -16241,7 +16241,7 @@
         <v>184</v>
       </c>
       <c r="C186" s="1">
-        <v>-2.88073237972051E-20</v>
+        <v>5.75970193065173E-11</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -16252,7 +16252,7 @@
         <v>185</v>
       </c>
       <c r="C187" s="1">
-        <v>1.4877808820391301E-32</v>
+        <v>6.6051846828289203E-11</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -16263,7 +16263,7 @@
         <v>186</v>
       </c>
       <c r="C188" s="1">
-        <v>-2.9056458970459698E-20</v>
+        <v>7.5528930202927799E-11</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -16274,7 +16274,7 @@
         <v>187</v>
       </c>
       <c r="C189" s="1">
-        <v>-4.6041762733007302E-33</v>
+        <v>8.6096820274216194E-11</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -16285,7 +16285,7 @@
         <v>188</v>
       </c>
       <c r="C190" s="1">
-        <v>-2.9304550940211698E-20</v>
+        <v>9.7812386170475297E-11</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -16296,7 +16296,7 @@
         <v>189</v>
       </c>
       <c r="C191" s="1">
-        <v>1.86574463362513E-34</v>
+        <v>1.1071461256878E-10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -16307,7 +16307,7 @@
         <v>190</v>
       </c>
       <c r="C192" s="1">
-        <v>-2.9551608274441901E-20</v>
+        <v>1.2481694360372799E-10</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -16318,7 +16318,7 @@
         <v>191</v>
       </c>
       <c r="C193" s="1">
-        <v>6.0847349180484199E-33</v>
+        <v>1.4009817344519001E-10</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -16329,7 +16329,7 @@
         <v>192</v>
       </c>
       <c r="C194" s="1">
-        <v>-2.9797639510945202E-20</v>
+        <v>1.56491795936579E-10</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -16340,7 +16340,7 @@
         <v>193</v>
       </c>
       <c r="C195" s="1">
-        <v>-7.8963127719876602E-33</v>
+        <v>1.7387421172330399E-10</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -16351,7 +16351,7 @@
         <v>194</v>
       </c>
       <c r="C196" s="1">
-        <v>-3.0042653153239497E-20</v>
+        <v>1.9205200917155601E-10</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -16362,7 +16362,7 @@
         <v>195</v>
       </c>
       <c r="C197" s="1">
-        <v>2.5638942384654999E-33</v>
+        <v>2.10749311881741E-10</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -16373,7 +16373,7 @@
         <v>196</v>
       </c>
       <c r="C198" s="1">
-        <v>-3.0286657666810403E-20</v>
+        <v>2.2959627371284001E-10</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -16384,7 +16384,7 @@
         <v>197</v>
       </c>
       <c r="C199" s="1">
-        <v>-6.8370513025746804E-33</v>
+        <v>2.4812064352321697E-10</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -16395,7 +16395,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="1">
-        <v>-3.0529661475668899E-20</v>
+        <v>2.6574407315866298E-10</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -16406,7 +16406,7 @@
         <v>199</v>
       </c>
       <c r="C201" s="1">
-        <v>-1.8476890403964999E-33</v>
+        <v>2.8178702836313599E-10</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -16417,7 +16417,7 @@
         <v>200</v>
       </c>
       <c r="C202" s="1">
-        <v>-3.0771672959201502E-20</v>
+        <v>2.9548380392910798E-10</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -16428,7 +16428,7 @@
         <v>201</v>
       </c>
       <c r="C203" s="1">
-        <v>1.16759502878476E-33</v>
+        <v>3.0601270069716001E-10</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -16439,7 +16439,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="1">
-        <v>-3.1012700449292098E-20</v>
+        <v>3.12541546191512E-10</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -16450,7 +16450,7 @@
         <v>203</v>
       </c>
       <c r="C205" s="1">
-        <v>2.1967638428166899E-33</v>
+        <v>3.14291567888323E-10</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -16461,7 +16461,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="1">
-        <v>-3.1252752227698402E-20</v>
+        <v>3.1061681462643902E-10</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -16472,7 +16472,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="1">
-        <v>0</v>
+        <v>3.0109413051138E-10</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -16483,7 +16483,7 @@
         <v>206</v>
       </c>
       <c r="C208" s="1">
-        <v>-3.1491836523664897E-20</v>
+        <v>2.8561474964819499E-10</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -16494,7 +16494,7 @@
         <v>207</v>
       </c>
       <c r="C209" s="1">
-        <v>-2.40741243048404E-35</v>
+        <v>2.64461274962051E-10</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -16505,7 +16505,7 @@
         <v>208</v>
       </c>
       <c r="C210" s="1">
-        <v>-3.1729961511756401E-20</v>
+        <v>2.38355016409515E-10</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -16516,7 +16516,7 @@
         <v>209</v>
       </c>
       <c r="C211" s="1">
-        <v>3.0092655381050501E-35</v>
+        <v>2.08452265633673E-10</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -16527,7 +16527,7 @@
         <v>210</v>
       </c>
       <c r="C212" s="1">
-        <v>-3.1967135309898302E-20</v>
+        <v>1.76277300335062E-10</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -16538,7 +16538,7 @@
         <v>211</v>
       </c>
       <c r="C213" s="1">
-        <v>1.44444745829042E-34</v>
+        <v>1.4358658935614301E-10</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -16549,7 +16549,7 @@
         <v>212</v>
       </c>
       <c r="C214" s="1">
-        <v>-3.2203365977608002E-20</v>
+        <v>1.12174496101252E-10</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -16560,7 +16560,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="1">
-        <v>-2.2268564981977402E-34</v>
+        <v>8.3650740799095999E-11</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -16571,7 +16571,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="1">
-        <v>-3.24386615144056E-20</v>
+        <v>5.9231275720574704E-11</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -16582,7 +16582,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="1">
-        <v>0</v>
+        <v>3.95915286327057E-11</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -16593,7 +16593,7 @@
         <v>216</v>
       </c>
       <c r="C218" s="1">
-        <v>-3.2673029858391398E-20</v>
+        <v>2.4821069619079401E-11</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -16604,7 +16604,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>1.44913161011758E-11</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -16615,7 +16615,7 @@
         <v>218</v>
       </c>
       <c r="C220" s="1">
-        <v>-3.29064788849788E-20</v>
+        <v>7.8170791362925695E-12</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -16626,7 +16626,7 @@
         <v>219</v>
       </c>
       <c r="C221" s="1">
-        <v>0</v>
+        <v>3.8624093697481398E-12</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -16637,7 +16637,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="1">
-        <v>-3.31390164057718E-20</v>
+        <v>1.7313692159317701E-12</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -16648,7 +16648,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>6.9672078774950899E-13</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -16659,7 +16659,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="1">
-        <v>-3.3370650167577603E-20</v>
+        <v>2.4878523123920598E-13</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -16670,7 +16670,7 @@
         <v>223</v>
       </c>
       <c r="C225" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>7.7829279609769795E-14</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -16681,7 +16681,7 @@
         <v>224</v>
       </c>
       <c r="C226" s="1">
-        <v>-3.3601387851544798E-20</v>
+        <v>2.1033991829655301E-14</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -16692,7 +16692,7 @@
         <v>225</v>
       </c>
       <c r="C227" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>4.8358528327944303E-15</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -16703,7 +16703,7 @@
         <v>226</v>
       </c>
       <c r="C228" s="1">
-        <v>-3.3831237072417998E-20</v>
+        <v>9.2992830543694692E-16</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -16714,7 +16714,7 @@
         <v>227</v>
       </c>
       <c r="C229" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>1.4683510273882501E-16</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -16725,7 +16725,7 @@
         <v>228</v>
       </c>
       <c r="C230" s="1">
-        <v>-3.4060205377902E-20</v>
+        <v>7.0802526702789804E-17</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -16736,7 +16736,7 @@
         <v>229</v>
       </c>
       <c r="C231" s="1">
-        <v>0</v>
+        <v>1.8485091454386998E-18</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -16747,7 +16747,7 @@
         <v>230</v>
       </c>
       <c r="C232" s="1">
-        <v>-3.4288300248126598E-20</v>
+        <v>1.4546732567554999E-19</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -16758,7 +16758,7 @@
         <v>231</v>
       </c>
       <c r="C233" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-8.8974579885373795E-21</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -16769,7 +16769,7 @@
         <v>232</v>
       </c>
       <c r="C234" s="1">
-        <v>-3.45155290952057E-20</v>
+        <v>-3.4701898546725301E-22</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -16780,7 +16780,7 @@
         <v>233</v>
       </c>
       <c r="C235" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.7501718832279399E-20</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -16791,7 +16791,7 @@
         <v>234</v>
       </c>
       <c r="C236" s="1">
-        <v>-3.47418992628843E-20</v>
+        <v>-1.9502046982212499E-22</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -16802,7 +16802,7 @@
         <v>235</v>
       </c>
       <c r="C237" s="1">
-        <v>0</v>
+        <v>-1.7632953611807E-20</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -16813,7 +16813,7 @@
         <v>236</v>
       </c>
       <c r="C238" s="1">
-        <v>-3.4967418026265598E-20</v>
+        <v>-2.3876199747796002E-22</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -16824,7 +16824,7 @@
         <v>237</v>
       </c>
       <c r="C239" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-1.7785511907677001E-20</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -16835,7 +16835,7 @@
         <v>238</v>
       </c>
       <c r="C240" s="1">
-        <v>-3.5192092591615301E-20</v>
+        <v>-2.4574979173601499E-22</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -16846,7 +16846,7 @@
         <v>239</v>
       </c>
       <c r="C241" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-1.7844957519037099E-20</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -16857,7 +16857,7 @@
         <v>240</v>
       </c>
       <c r="C242" s="1">
-        <v>-3.5415930096234401E-20</v>
+        <v>-2.1621459714006798E-22</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -16868,7 +16868,7 @@
         <v>241</v>
       </c>
       <c r="C243" s="1">
-        <v>0</v>
+        <v>-1.7927346880991899E-20</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -16879,7 +16879,7 @@
         <v>242</v>
       </c>
       <c r="C244" s="1">
-        <v>-3.5638937608398E-20</v>
+        <v>-1.4298120523058899E-22</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -16890,7 +16890,7 @@
         <v>243</v>
       </c>
       <c r="C245" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-1.8022199231513199E-20</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -16901,7 +16901,7 @@
         <v>244</v>
       </c>
       <c r="C246" s="1">
-        <v>-3.5861122127353801E-20</v>
+        <v>-1.27853083300249E-22</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -16912,7 +16912,7 @@
         <v>245</v>
       </c>
       <c r="C247" s="1">
-        <v>0</v>
+        <v>-1.8101462159026901E-20</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -16923,7 +16923,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="1">
-        <v>-3.60824905833764E-20</v>
+        <v>-1.07676387115878E-22</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -16934,7 +16934,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="1">
-        <v>0</v>
+        <v>-1.81749155806855E-20</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -16945,7 +16945,7 @@
         <v>248</v>
       </c>
       <c r="C250" s="1">
-        <v>-3.6303049837873702E-20</v>
+        <v>6.7243367875305405E-24</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -16956,7 +16956,7 @@
         <v>249</v>
       </c>
       <c r="C251" s="1">
-        <v>0</v>
+        <v>-1.8197727905903801E-20</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -16967,7 +16967,7 @@
         <v>250</v>
       </c>
       <c r="C252" s="1">
-        <v>-3.6522806683540502E-20</v>
+        <v>4.4094826788679803E-24</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -16978,7 +16978,7 @@
         <v>251</v>
       </c>
       <c r="C253" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.83105073301414E-20</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -16989,7 +16989,7 @@
         <v>252</v>
       </c>
       <c r="C254" s="1">
-        <v>-3.6741767844556301E-20</v>
+        <v>2.5020918010051898E-24</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -17000,7 +17000,7 @@
         <v>253</v>
       </c>
       <c r="C255" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-1.84221119788049E-20</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -17011,7 +17011,7 @@
         <v>254</v>
       </c>
       <c r="C256" s="1">
-        <v>-3.6959939976823901E-20</v>
+        <v>1.3865181062423299E-24</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -17022,7 +17022,7 @@
         <v>255</v>
       </c>
       <c r="C257" s="1">
-        <v>0</v>
+        <v>-1.8532424892333901E-20</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -17033,7 +17033,7 @@
         <v>256</v>
       </c>
       <c r="C258" s="1">
-        <v>-3.7177329668245403E-20</v>
+        <v>7.9659578705663598E-25</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -17044,7 +17044,7 @@
         <v>257</v>
       </c>
       <c r="C259" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-1.8641773485349601E-20</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -17055,7 +17055,7 @@
         <v>258</v>
       </c>
       <c r="C260" s="1">
-        <v>-3.7393943439032998E-20</v>
+        <v>1.59725799453259E-24</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -17066,7 +17066,7 @@
         <v>259</v>
       </c>
       <c r="C261" s="1">
-        <v>0</v>
+        <v>-1.87503786310975E-20</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -17077,7 +17077,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="1">
-        <v>-3.7609787742050998E-20</v>
+        <v>1.7159816845213901E-24</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -17088,7 +17088,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="1">
-        <v>0</v>
+        <v>-1.8858387873884901E-20</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="1">
-        <v>-3.7824868963187002E-20</v>
+        <v>1.49955566848783E-24</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -17110,7 +17110,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.8965869987102301E-20</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -17121,7 +17121,7 @@
         <v>264</v>
       </c>
       <c r="C266" s="1">
-        <v>-3.8039193421750502E-20</v>
+        <v>1.04692282986881E-24</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -17132,7 +17132,7 @@
         <v>265</v>
       </c>
       <c r="C267" s="1">
-        <v>0</v>
+        <v>-1.9072314820293701E-20</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -17143,7 +17143,7 @@
         <v>266</v>
       </c>
       <c r="C268" s="1">
-        <v>-3.82527673708948E-20</v>
+        <v>6.5486345605140998E-25</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -17154,7 +17154,7 @@
         <v>267</v>
       </c>
       <c r="C269" s="1">
-        <v>0</v>
+        <v>-1.9178846361937701E-20</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -17165,7 +17165,7 @@
         <v>268</v>
       </c>
       <c r="C270" s="1">
-        <v>-3.8465596998061798E-20</v>
+        <v>4.1684057756608902E-25</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -17176,7 +17176,7 @@
         <v>269</v>
       </c>
       <c r="C271" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-1.9285307464458201E-20</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -17187,7 +17187,7 @@
         <v>270</v>
       </c>
       <c r="C272" s="1">
-        <v>-3.8677688425446998E-20</v>
+        <v>2.6521556152436202E-25</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -17198,7 +17198,7 @@
         <v>271</v>
       </c>
       <c r="C273" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.9391384193988399E-20</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -17209,7 +17209,7 @@
         <v>272</v>
       </c>
       <c r="C274" s="1">
-        <v>-3.8889047710482499E-20</v>
+        <v>1.6729088535085401E-25</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -17220,7 +17220,7 @@
         <v>273</v>
       </c>
       <c r="C275" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.9497016601383899E-20</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -17231,7 +17231,7 @@
         <v>274</v>
       </c>
       <c r="C276" s="1">
-        <v>-3.9099680846337402E-20</v>
+        <v>1.0463729365997E-25</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -17242,7 +17242,7 @@
         <v>275</v>
       </c>
       <c r="C277" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.9602236268778201E-20</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -17253,7 +17253,7 @@
         <v>276</v>
       </c>
       <c r="C278" s="1">
-        <v>-3.9309593762432002E-20</v>
+        <v>6.4911234004705199E-26</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -17264,7 +17264,7 @@
         <v>277</v>
       </c>
       <c r="C279" s="1">
-        <v>0</v>
+        <v>-1.9707064965448201E-20</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -17275,7 +17275,7 @@
         <v>278</v>
       </c>
       <c r="C280" s="1">
-        <v>-3.9518792324966602E-20</v>
+        <v>3.9945261887631399E-26</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -17286,7 +17286,7 @@
         <v>279</v>
       </c>
       <c r="C281" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-1.98115177693968E-20</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -17297,7 +17297,7 @@
         <v>280</v>
       </c>
       <c r="C282" s="1">
-        <v>-3.9727282337461899E-20</v>
+        <v>2.4384973454354399E-26</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -17308,7 +17308,7 @@
         <v>281</v>
       </c>
       <c r="C283" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-1.99156053262258E-20</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -17319,7 +17319,7 @@
         <v>282</v>
       </c>
       <c r="C284" s="1">
-        <v>-3.9935069541309799E-20</v>
+        <v>1.4774000991758799E-26</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -17330,7 +17330,7 @@
         <v>283</v>
       </c>
       <c r="C285" s="1">
-        <v>0</v>
+        <v>-2.0019335347317901E-20</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -17341,7 +17341,7 @@
         <v>284</v>
       </c>
       <c r="C286" s="1">
-        <v>-4.0142159616334398E-20</v>
+        <v>8.8864313943560098E-27</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -17352,7 +17352,7 @@
         <v>285</v>
       </c>
       <c r="C287" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.0122713661825299E-20</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -17363,7 +17363,7 @@
         <v>286</v>
       </c>
       <c r="C288" s="1">
-        <v>-4.03485581813605E-20</v>
+        <v>5.3079905797753398E-27</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -17374,7 +17374,7 @@
         <v>287</v>
       </c>
       <c r="C289" s="1">
-        <v>0</v>
+        <v>-2.0225744911474399E-20</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -17385,7 +17385,7 @@
         <v>288</v>
       </c>
       <c r="C290" s="1">
-        <v>-4.0554270794789799E-20</v>
+        <v>3.14837911725504E-27</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -17396,7 +17396,7 @@
         <v>289</v>
       </c>
       <c r="C291" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.0328432961856199E-20</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -17407,7 +17407,7 @@
         <v>290</v>
       </c>
       <c r="C292" s="1">
-        <v>-4.07593029551836E-20</v>
+        <v>1.8558953797412801E-27</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -17418,7 +17418,7 @@
         <v>291</v>
       </c>
       <c r="C293" s="1">
-        <v>0</v>
+        <v>-2.0430781210311701E-20</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -17429,7 +17429,7 @@
         <v>292</v>
       </c>
       <c r="C294" s="1">
-        <v>-4.0963660101849803E-20</v>
+        <v>8.4974892763450907E-27</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -17440,7 +17440,7 @@
         <v>293</v>
       </c>
       <c r="C295" s="1">
-        <v>0</v>
+        <v>-2.05327859173389E-20</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -17451,7 +17451,7 @@
         <v>294</v>
       </c>
       <c r="C296" s="1">
-        <v>-4.1167347615435198E-20</v>
+        <v>4.41590801714485E-26</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -17462,7 +17462,7 @@
         <v>295</v>
       </c>
       <c r="C297" s="1">
-        <v>0</v>
+        <v>-2.0634429257684899E-20</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -17473,7 +17473,7 @@
         <v>296</v>
       </c>
       <c r="C298" s="1">
-        <v>-4.13703708185212E-20</v>
+        <v>3.3590206078705401E-26</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -17484,7 +17484,7 @@
         <v>297</v>
       </c>
       <c r="C299" s="1">
-        <v>0</v>
+        <v>-2.07357894140851E-20</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -17495,7 +17495,7 @@
         <v>298</v>
       </c>
       <c r="C300" s="1">
-        <v>-4.15727349762218E-20</v>
+        <v>2.3157576982738199E-26</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -17506,7 +17506,7 @@
         <v>299</v>
       </c>
       <c r="C301" s="1">
-        <v>0</v>
+        <v>-2.08368169690777E-20</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -17517,7 +17517,7 @@
         <v>300</v>
       </c>
       <c r="C302" s="1">
-        <v>-4.1774445296784498E-20</v>
+        <v>1.5900582168764301E-26</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -17528,7 +17528,7 @@
         <v>301</v>
       </c>
       <c r="C303" s="1">
-        <v>0</v>
+        <v>-2.0937515894579099E-20</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -17539,7 +17539,7 @@
         <v>302</v>
       </c>
       <c r="C304" s="1">
-        <v>-4.19755069321917E-20</v>
+        <v>1.0889280856180601E-26</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -17550,7 +17550,7 @@
         <v>303</v>
       </c>
       <c r="C305" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.1037889703167101E-20</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -17561,7 +17561,7 @@
         <v>304</v>
       </c>
       <c r="C306" s="1">
-        <v>-4.2175924978764203E-20</v>
+        <v>7.4369083282530798E-27</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -17572,7 +17572,7 @@
         <v>305</v>
       </c>
       <c r="C307" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.1137941594128801E-20</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -17583,7 +17583,7 @@
         <v>306</v>
       </c>
       <c r="C308" s="1">
-        <v>-4.2375704477763501E-20</v>
+        <v>5.0616286907401799E-27</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -17594,7 +17594,7 @@
         <v>307</v>
       </c>
       <c r="C309" s="1">
-        <v>0</v>
+        <v>-2.12376745260226E-20</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -17605,7 +17605,7 @@
         <v>308</v>
       </c>
       <c r="C310" s="1">
-        <v>-4.2574850415994999E-20</v>
+        <v>3.4387378226267898E-27</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -17616,7 +17616,7 @@
         <v>309</v>
       </c>
       <c r="C311" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.13370912875555E-20</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -17627,7 +17627,7 @@
         <v>310</v>
       </c>
       <c r="C312" s="1">
-        <v>-4.2773367726409801E-20</v>
+        <v>2.32931702448208E-27</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -17638,7 +17638,7 @@
         <v>311</v>
       </c>
       <c r="C313" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.1436194535858101E-20</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -17649,7 +17649,7 @@
         <v>312</v>
       </c>
       <c r="C314" s="1">
-        <v>-4.2971261288705499E-20</v>
+        <v>1.57598451329862E-27</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -17660,7 +17660,7 @@
         <v>313</v>
       </c>
       <c r="C315" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.1534986840103101E-20</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -17671,7 +17671,7 @@
         <v>314</v>
       </c>
       <c r="C316" s="1">
-        <v>-4.3168535929925697E-20</v>
+        <v>1.06598806863324E-27</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -17682,7 +17682,7 @@
         <v>315</v>
       </c>
       <c r="C317" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.1633470690540499E-20</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -17693,7 +17693,7 @@
         <v>316</v>
       </c>
       <c r="C318" s="1">
-        <v>-4.33651964250563E-20</v>
+        <v>7.1838095121983199E-28</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -17704,7 +17704,7 @@
         <v>317</v>
       </c>
       <c r="C319" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.1731648529174901E-20</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -17715,7 +17715,7 @@
         <v>318</v>
       </c>
       <c r="C320" s="1">
-        <v>-4.3561247497621503E-20</v>
+        <v>4.9548037363679602E-28</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -17726,7 +17726,7 @@
         <v>319</v>
       </c>
       <c r="C321" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.1829522746847799E-20</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -17737,7 +17737,7 @@
         <v>320</v>
       </c>
       <c r="C322" s="1">
-        <v>-4.3756693820274801E-20</v>
+        <v>3.3615995556589399E-28</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -17748,7 +17748,7 @@
         <v>321</v>
       </c>
       <c r="C323" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.1927095695560501E-20</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -17759,7 +17759,7 @@
         <v>322</v>
       </c>
       <c r="C324" s="1">
-        <v>-4.3951540015388402E-20</v>
+        <v>2.3382680547325099E-28</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -17770,7 +17770,7 @@
         <v>323</v>
       </c>
       <c r="C325" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.2024369690976599E-20</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -17781,7 +17781,7 @@
         <v>324</v>
       </c>
       <c r="C326" s="1">
-        <v>-4.4145790655639103E-20</v>
+        <v>1.65028272572958E-28</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -17792,7 +17792,7 @@
         <v>325</v>
       </c>
       <c r="C327" s="1">
-        <v>1.20370621524202E-35</v>
+        <v>-2.2121347019469101E-20</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -17803,7 +17803,7 @@
         <v>326</v>
       </c>
       <c r="C328" s="1">
-        <v>-4.4339450264590503E-20</v>
+        <v>1.1584262179873301E-28</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -17814,7 +17814,7 @@
         <v>327</v>
       </c>
       <c r="C329" s="1">
-        <v>0</v>
+        <v>-2.2218029937998201E-20</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -17825,7 +17825,7 @@
         <v>328</v>
       </c>
       <c r="C330" s="1">
-        <v>-4.4532523317271201E-20</v>
+        <v>8.0170336720205002E-29</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -17836,7 +17836,7 @@
         <v>329</v>
       </c>
       <c r="C331" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.2314420677978E-20</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -17847,7 +17847,7 @@
         <v>330</v>
       </c>
       <c r="C332" s="1">
-        <v>-4.47250142407492E-20</v>
+        <v>5.5909505544318397E-29</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -17858,7 +17858,7 @@
         <v>331</v>
       </c>
       <c r="C333" s="1">
-        <v>0</v>
+        <v>-2.2410521444195399E-20</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -17869,7 +17869,7 @@
         <v>332</v>
       </c>
       <c r="C334" s="1">
-        <v>-4.4916927414702402E-20</v>
+        <v>3.8814590246072702E-29</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -17880,7 +17880,7 @@
         <v>333</v>
       </c>
       <c r="C335" s="1">
-        <v>0</v>
+        <v>-2.25063344171731E-20</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -17891,7 +17891,7 @@
         <v>334</v>
       </c>
       <c r="C336" s="1">
-        <v>-4.5108267171984301E-20</v>
+        <v>2.7292305093662898E-29</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -17902,7 +17902,7 @@
         <v>335</v>
       </c>
       <c r="C337" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.26018617532341E-20</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -17913,7 +17913,7 @@
         <v>336</v>
       </c>
       <c r="C338" s="1">
-        <v>-4.5299037799185102E-20</v>
+        <v>2.01996166836261E-29</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -17924,7 +17924,7 @@
         <v>337</v>
       </c>
       <c r="C339" s="1">
-        <v>0</v>
+        <v>-2.2697105585291999E-20</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -17935,7 +17935,7 @@
         <v>338</v>
       </c>
       <c r="C340" s="1">
-        <v>-4.5489243537188603E-20</v>
+        <v>1.2714158935556E-29</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -17946,7 +17946,7 @@
         <v>339</v>
       </c>
       <c r="C341" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.2792068023129001E-20</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -17957,7 +17957,7 @@
         <v>340</v>
       </c>
       <c r="C342" s="1">
-        <v>-4.5678888581724001E-20</v>
+        <v>9.9036012194631097E-30</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -17968,7 +17968,7 @@
         <v>341</v>
       </c>
       <c r="C343" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.28867511538866E-20</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -17979,7 +17979,7 @@
         <v>342</v>
       </c>
       <c r="C344" s="1">
-        <v>-4.5867977083912399E-20</v>
+        <v>6.7097954814993007E-30</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -17990,7 +17990,7 @@
         <v>343</v>
       </c>
       <c r="C345" s="1">
-        <v>1.20370621524202E-35</v>
+        <v>-2.29811570423791E-20</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -18001,7 +18001,7 @@
         <v>344</v>
       </c>
       <c r="C346" s="1">
-        <v>-4.6056513150808901E-20</v>
+        <v>4.8768759163638103E-30</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -18012,7 +18012,7 @@
         <v>345</v>
       </c>
       <c r="C347" s="1">
-        <v>0</v>
+        <v>-2.3075287731408901E-20</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -18023,7 +18023,7 @@
         <v>346</v>
       </c>
       <c r="C348" s="1">
-        <v>-4.62445008459395E-20</v>
+        <v>3.5509814832125702E-30</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -18034,7 +18034,7 @@
         <v>347</v>
       </c>
       <c r="C349" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.3169145242092999E-20</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -18045,7 +18045,7 @@
         <v>348</v>
       </c>
       <c r="C350" s="1">
-        <v>-4.6431944189831902E-20</v>
+        <v>2.1605924710486601E-30</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -18056,7 +18056,7 @@
         <v>349</v>
       </c>
       <c r="C351" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.32627315741359E-20</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -18067,7 +18067,7 @@
         <v>350</v>
       </c>
       <c r="C352" s="1">
-        <v>-4.6618847160542199E-20</v>
+        <v>1.6799044310539101E-30</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -18078,7 +18078,7 @@
         <v>351</v>
       </c>
       <c r="C353" s="1">
-        <v>0</v>
+        <v>-2.3356048706101501E-20</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -18089,7 +18089,7 @@
         <v>352</v>
       </c>
       <c r="C354" s="1">
-        <v>-4.68052136941757E-20</v>
+        <v>1.19615897727245E-30</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -18100,7 +18100,7 @@
         <v>353</v>
       </c>
       <c r="C355" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.3449098595690999E-20</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -18111,7 +18111,7 @@
         <v>354</v>
       </c>
       <c r="C356" s="1">
-        <v>-4.6991047685401899E-20</v>
+        <v>5.8287066060664399E-31</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -18122,7 +18122,7 @@
         <v>355</v>
       </c>
       <c r="C357" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.3541883180002201E-20</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -18133,7 +18133,7 @@
         <v>356</v>
       </c>
       <c r="C358" s="1">
-        <v>-4.7176352987965003E-20</v>
+        <v>5.18406174249358E-31</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -18144,7 +18144,7 @@
         <v>357</v>
       </c>
       <c r="C359" s="1">
-        <v>0</v>
+        <v>-2.36344043757866E-20</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -18155,7 +18155,7 @@
         <v>358</v>
       </c>
       <c r="C360" s="1">
-        <v>-4.7361133415187903E-20</v>
+        <v>5.0689272430056797E-31</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -18166,7 +18166,7 @@
         <v>359</v>
       </c>
       <c r="C361" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.3726664079707001E-20</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -18177,7 +18177,7 @@
         <v>360</v>
       </c>
       <c r="C362" s="1">
-        <v>-4.7545392740471298E-20</v>
+        <v>3.6782252672257999E-31</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -18188,7 +18188,7 @@
         <v>361</v>
       </c>
       <c r="C363" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.38186641685823E-20</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -18199,7 +18199,7 @@
         <v>362</v>
       </c>
       <c r="C364" s="1">
-        <v>-4.7729134697787201E-20</v>
+        <v>1.8516010855960401E-31</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -18210,7 +18210,7 @@
         <v>363</v>
       </c>
       <c r="C365" s="1">
-        <v>0</v>
+        <v>-2.39104064996392E-20</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -18221,7 +18221,7 @@
         <v>364</v>
       </c>
       <c r="C366" s="1">
-        <v>-4.7912362982166497E-20</v>
+        <v>1.44637338823481E-31</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -18232,7 +18232,7 @@
         <v>365</v>
       </c>
       <c r="C367" s="1">
-        <v>0</v>
+        <v>-2.4001892910751499E-20</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -18243,7 +18243,7 @@
         <v>366</v>
       </c>
       <c r="C368" s="1">
-        <v>-4.80950812501818E-20</v>
+        <v>1.5012623916498499E-31</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -18254,7 +18254,7 @@
         <v>367</v>
       </c>
       <c r="C369" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.4093125220682801E-20</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -18265,7 +18265,7 @@
         <v>368</v>
       </c>
       <c r="C370" s="1">
-        <v>-4.8277293120423298E-20</v>
+        <v>3.5966741711431602E-32</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -18276,7 +18276,7 @@
         <v>369</v>
       </c>
       <c r="C371" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.41841052293227E-20</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -18287,7 +18287,7 @@
         <v>370</v>
       </c>
       <c r="C372" s="1">
-        <v>-4.84590021739708E-20</v>
+        <v>2.6054221028913498E-32</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -18298,7 +18298,7 @@
         <v>371</v>
       </c>
       <c r="C373" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.4274834717921899E-20</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -18309,7 +18309,7 @@
         <v>372</v>
       </c>
       <c r="C374" s="1">
-        <v>-4.8640211954858502E-20</v>
+        <v>2.1179210857183299E-32</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -18320,7 +18320,7 @@
         <v>373</v>
       </c>
       <c r="C375" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.4365315449323501E-20</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -18331,7 +18331,7 @@
         <v>374</v>
       </c>
       <c r="C376" s="1">
-        <v>-4.8820925970535497E-20</v>
+        <v>7.2312650880664398E-32</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -18342,7 +18342,7 @@
         <v>375</v>
       </c>
       <c r="C377" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.4455549168191399E-20</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -18353,7 +18353,7 @@
         <v>376</v>
       </c>
       <c r="C378" s="1">
-        <v>-4.9001147692320198E-20</v>
+        <v>5.4708447482749897E-32</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -18364,7 +18364,7 @@
         <v>377</v>
       </c>
       <c r="C379" s="1">
-        <v>0</v>
+        <v>-2.45455376012369E-20</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -18375,7 +18375,7 @@
         <v>378</v>
       </c>
       <c r="C380" s="1">
-        <v>-4.9180880555848999E-20</v>
+        <v>2.35806047565912E-32</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -18386,7 +18386,7 @@
         <v>379</v>
       </c>
       <c r="C381" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.46352824574412E-20</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -18397,7 +18397,7 @@
         <v>380</v>
       </c>
       <c r="C382" s="1">
-        <v>-4.9360127961520001E-20</v>
+        <v>1.9175040008805401E-32</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -18408,7 +18408,7 @@
         <v>381</v>
       </c>
       <c r="C383" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.4724785428276201E-20</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -18419,7 +18419,7 @@
         <v>382</v>
       </c>
       <c r="C384" s="1">
-        <v>-4.9538893274930798E-20</v>
+        <v>-2.6421351424562299E-33</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -18430,7 +18430,7 @@
         <v>383</v>
       </c>
       <c r="C385" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.48140481879221E-20</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -18441,7 +18441,7 @@
         <v>384</v>
       </c>
       <c r="C386" s="1">
-        <v>-4.9717179827311299E-20</v>
+        <v>1.0267614016014401E-32</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -18452,7 +18452,7 @@
         <v>385</v>
       </c>
       <c r="C387" s="1">
-        <v>0</v>
+        <v>-2.4903072393481899E-20</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -18463,7 +18463,7 @@
         <v>386</v>
       </c>
       <c r="C388" s="1">
-        <v>-4.9894990915950101E-20</v>
+        <v>1.3619935825463399E-32</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -18474,7 +18474,7 @@
         <v>387</v>
       </c>
       <c r="C389" s="1">
-        <v>0</v>
+        <v>-2.4991859685194299E-20</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -18485,7 +18485,7 @@
         <v>388</v>
       </c>
       <c r="C390" s="1">
-        <v>-5.00723298046171E-20</v>
+        <v>6.2231611328012504E-33</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -18496,7 +18496,7 @@
         <v>389</v>
       </c>
       <c r="C391" s="1">
-        <v>0</v>
+        <v>-2.5080411686642699E-20</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -18507,7 +18507,7 @@
         <v>390</v>
       </c>
       <c r="C392" s="1">
-        <v>-5.0249199723979402E-20</v>
+        <v>1.3517620797167901E-32</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -18518,7 +18518,7 @@
         <v>391</v>
       </c>
       <c r="C393" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.5168730004962001E-20</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -18529,7 +18529,7 @@
         <v>392</v>
       </c>
       <c r="C394" s="1">
-        <v>-5.0425603872012003E-20</v>
+        <v>4.5138983071575799E-33</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -18540,7 +18540,7 @@
         <v>393</v>
       </c>
       <c r="C395" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.5256816231043199E-20</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -18551,7 +18551,7 @@
         <v>394</v>
       </c>
       <c r="C396" s="1">
-        <v>-5.0601545414404399E-20</v>
+        <v>6.13890169773431E-34</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -18562,7 +18562,7 @@
         <v>395</v>
       </c>
       <c r="C397" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.53446719397347E-20</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -18573,7 +18573,7 @@
         <v>396</v>
       </c>
       <c r="C398" s="1">
-        <v>-5.0777027484960301E-20</v>
+        <v>-4.1527864425849696E-34</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -18584,7 +18584,7 @@
         <v>397</v>
       </c>
       <c r="C399" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.54322986900414E-20</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -18595,7 +18595,7 @@
         <v>398</v>
       </c>
       <c r="C400" s="1">
-        <v>-5.0952053185993403E-20</v>
+        <v>1.9078743511586E-33</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -18606,7 +18606,7 @@
         <v>399</v>
       </c>
       <c r="C401" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.5519698025321E-20</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -18617,7 +18617,7 @@
         <v>400</v>
       </c>
       <c r="C402" s="1">
-        <v>-5.1126625588717701E-20</v>
+        <v>-3.1416732217816703E-33</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -18628,7 +18628,7 @@
         <v>401</v>
       </c>
       <c r="C403" s="1">
-        <v>0</v>
+        <v>-2.56068714734778E-20</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -18639,7 +18639,7 @@
         <v>402</v>
       </c>
       <c r="C404" s="1">
-        <v>-5.1300747733632003E-20</v>
+        <v>5.1759367255406904E-34</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -18650,7 +18650,7 @@
         <v>403</v>
       </c>
       <c r="C405" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.5693820547153899E-20</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -18661,7 +18661,7 @@
         <v>404</v>
       </c>
       <c r="C406" s="1">
-        <v>-5.1474422630900599E-20</v>
+        <v>-1.28796565030896E-33</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -18672,7 +18672,7 @@
         <v>405</v>
       </c>
       <c r="C407" s="1">
-        <v>0</v>
+        <v>-2.57805467439182E-20</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -18683,7 +18683,7 @@
         <v>406</v>
       </c>
       <c r="C408" s="1">
-        <v>-5.1647653260727799E-20</v>
+        <v>-1.29398418138517E-33</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -18694,7 +18694,7 @@
         <v>407</v>
       </c>
       <c r="C409" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.5867051546452601E-20</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -18705,7 +18705,7 @@
         <v>408</v>
       </c>
       <c r="C410" s="1">
-        <v>-5.1820442573728598E-20</v>
+        <v>2.5277830520082398E-34</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -18716,7 +18716,7 @@
         <v>409</v>
       </c>
       <c r="C411" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.59533364227357E-20</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -18727,7 +18727,7 @@
         <v>410</v>
       </c>
       <c r="C412" s="1">
-        <v>-5.1992793491293098E-20</v>
+        <v>8.5463141282183505E-34</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -18738,7 +18738,7 @@
         <v>411</v>
       </c>
       <c r="C413" s="1">
-        <v>0</v>
+        <v>-2.60394028262242E-20</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -18749,7 +18749,7 @@
         <v>412</v>
       </c>
       <c r="C414" s="1">
-        <v>-5.2164708905947498E-20</v>
+        <v>-6.0185310762101099E-35</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -18760,7 +18760,7 @@
         <v>413</v>
       </c>
       <c r="C415" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.6125252196032E-20</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -18771,7 +18771,7 @@
         <v>414</v>
       </c>
       <c r="C416" s="1">
-        <v>-5.2336191681709199E-20</v>
+        <v>-3.85185988877447E-34</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -18782,7 +18782,7 @@
         <v>415</v>
       </c>
       <c r="C417" s="1">
-        <v>0</v>
+        <v>-2.6210885957106499E-20</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -18793,7 +18793,7 @@
         <v>416</v>
       </c>
       <c r="C418" s="1">
-        <v>-5.2507244654437702E-20</v>
+        <v>-6.01853107621011E-36</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -18804,7 +18804,7 @@
         <v>417</v>
       </c>
       <c r="C419" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.6296305520402899E-20</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -18815,7 +18815,7 @@
         <v>418</v>
       </c>
       <c r="C420" s="1">
-        <v>-5.2677870632180701E-20</v>
+        <v>2.9490802273429502E-34</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -18826,7 +18826,7 @@
         <v>419</v>
       </c>
       <c r="C421" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.6381512283056401E-20</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -18837,7 +18837,7 @@
         <v>420</v>
       </c>
       <c r="C422" s="1">
-        <v>-5.2848072395515303E-20</v>
+        <v>1.5648180798146199E-34</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -18848,7 +18848,7 @@
         <v>421</v>
       </c>
       <c r="C423" s="1">
-        <v>0</v>
+        <v>-2.6466507628551301E-20</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -18859,7 +18859,7 @@
         <v>422</v>
       </c>
       <c r="C424" s="1">
-        <v>-5.3017852697885303E-20</v>
+        <v>1.8055593228630299E-35</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -18870,7 +18870,7 @@
         <v>423</v>
       </c>
       <c r="C425" s="1">
-        <v>0</v>
+        <v>-2.6551292926888399E-20</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -18881,7 +18881,7 @@
         <v>424</v>
       </c>
       <c r="C426" s="1">
-        <v>-5.3187214265932802E-20</v>
+        <v>-6.0185310762101099E-35</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -18892,7 +18892,7 @@
         <v>425</v>
       </c>
       <c r="C427" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.6635869534750001E-20</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -18903,7 +18903,7 @@
         <v>426</v>
       </c>
       <c r="C428" s="1">
-        <v>-5.33561597998264E-20</v>
+        <v>1.62500339057673E-34</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -18914,7 +18914,7 @@
         <v>427</v>
       </c>
       <c r="C429" s="1">
-        <v>0</v>
+        <v>-2.6720238795662799E-20</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -18925,7 +18925,7 @@
         <v>428</v>
       </c>
       <c r="C430" s="1">
-        <v>-5.3524691973584703E-20</v>
+        <v>-2.4675977412461399E-34</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -18936,7 +18936,7 @@
         <v>429</v>
       </c>
       <c r="C431" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.6804402040158599E-20</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -18947,7 +18947,7 @@
         <v>430</v>
       </c>
       <c r="C432" s="1">
-        <v>-5.3692813435394703E-20</v>
+        <v>-1.5648180798146199E-34</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -18958,7 +18958,7 @@
         <v>431</v>
       </c>
       <c r="C433" s="1">
-        <v>6.01853107621011E-36</v>
+        <v>-2.68883605859321E-20</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -18969,7 +18969,7 @@
         <v>432</v>
       </c>
       <c r="C434" s="1">
-        <v>-5.3860526807926998E-20</v>
+        <v>-1.5046327690525201E-34</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -18980,7 +18980,7 @@
         <v>433</v>
       </c>
       <c r="C435" s="1">
-        <v>0</v>
+        <v>-2.6972115737997801E-20</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -18991,7 +18991,7 @@
         <v>434</v>
       </c>
       <c r="C436" s="1">
-        <v>-5.4027834688645798E-20</v>
+        <v>5.4166779685890998E-35</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -19002,7 +19002,7 @@
         <v>435</v>
       </c>
       <c r="C437" s="1">
-        <v>-6.01853107621011E-36</v>
+        <v>-2.7055668788843801E-20</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -19013,7 +19013,7 @@
         <v>436</v>
       </c>
       <c r="C438" s="1">
-        <v>-5.4194739650115299E-20</v>
+        <v>1.2223636615782701E-32</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -19024,7 +19024,7 @@
         <v>437</v>
       </c>
       <c r="C439" s="1">
-        <v>0</v>
+        <v>-2.71390210185839E-20</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -19035,7 +19035,7 @@
         <v>438</v>
       </c>
       <c r="C440" s="1">
-        <v>-5.4361244240301602E-20</v>
+        <v>-1.3252805429814601E-32</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -19046,7 +19046,7 @@
         <v>439</v>
       </c>
       <c r="C441" s="1">
-        <v>0</v>
+        <v>-2.7222173695107602E-20</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -19057,7 +19057,7 @@
         <v>440</v>
       </c>
       <c r="C442" s="1">
-        <v>-5.4527350982870294E-20</v>
+        <v>1.7345406561637499E-32</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -19068,7 +19068,7 @@
         <v>441</v>
       </c>
       <c r="C443" s="1">
-        <v>0</v>
+        <v>-2.7305128074227901E-20</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -19079,7 +19079,7 @@
         <v>442</v>
       </c>
       <c r="C444" s="1">
-        <v>-5.4693062377480705E-20</v>
+        <v>7.4277099423939398E-31</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -19090,7 +19090,7 @@
         <v>443</v>
       </c>
       <c r="C445" s="1">
-        <v>1.20370621524202E-35</v>
+        <v>-2.7387885399827203E-20</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -19101,7 +19101,7 @@
         <v>444</v>
       </c>
       <c r="C446" s="1">
-        <v>-5.4858380900075402E-20</v>
+        <v>-2.7429190553040798E-20</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -19112,7 +19112,7 @@
         <v>445</v>
       </c>
       <c r="C447" s="1">
-        <v>1.20370621524202E-35</v>
+        <v>-2.7470446904001298E-20</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -19123,7 +19123,7 @@
         <v>446</v>
       </c>
       <c r="C448" s="1">
-        <v>-5.5023309003165895E-20</v>
+        <v>-2.7511654604893802E-20</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -19134,7 +19134,7 @@
         <v>447</v>
       </c>
       <c r="C449" s="1">
-        <v>0</v>
+        <v>-2.7552813807201398E-20</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -19145,7 +19145,7 @@
         <v>448</v>
       </c>
       <c r="C450" s="1">
-        <v>-5.5187849116115004E-20</v>
+        <v>-2.7593924661675398E-20</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -19156,7 +19156,7 @@
         <v>449</v>
       </c>
       <c r="C451" s="1">
-        <v>0</v>
+        <v>-2.7634987318373802E-20</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -19167,7 +19167,7 @@
         <v>450</v>
       </c>
       <c r="C452" s="1">
-        <v>-5.5352003645414602E-20</v>
+        <v>-2.7676001926631401E-20</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -19178,7 +19178,7 @@
         <v>451</v>
       </c>
       <c r="C453" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.77169686350983E-20</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -19189,7 +19189,7 @@
         <v>452</v>
       </c>
       <c r="C454" s="1">
-        <v>-5.5515774974959996E-20</v>
+        <v>-2.7757887591709599E-20</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -19200,7 +19200,7 @@
         <v>453</v>
       </c>
       <c r="C455" s="1">
-        <v>0</v>
+        <v>-2.7798758943724197E-20</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -19211,7 +19211,7 @@
         <v>454</v>
       </c>
       <c r="C456" s="1">
-        <v>-5.5679165466320299E-20</v>
+        <v>-2.7839582837694499E-20</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -19222,7 +19222,7 @@
         <v>455</v>
       </c>
       <c r="C457" s="1">
-        <v>0</v>
+        <v>-2.7880359419504799E-20</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -19233,7 +19233,7 @@
         <v>456</v>
       </c>
       <c r="C458" s="1">
-        <v>-5.5842177459005501E-20</v>
+        <v>-2.7921088834341198E-20</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -19244,7 +19244,7 @@
         <v>457</v>
       </c>
       <c r="C459" s="1">
-        <v>0</v>
+        <v>-2.79617712267297E-20</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -19255,7 +19255,7 @@
         <v>458</v>
       </c>
       <c r="C460" s="1">
-        <v>-5.6004813270729506E-20</v>
+        <v>-2.8002406740506402E-20</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -19266,7 +19266,7 @@
         <v>459</v>
       </c>
       <c r="C461" s="1">
-        <v>0</v>
+        <v>-2.8042995518855601E-20</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -19277,7 +19277,7 @@
         <v>460</v>
       </c>
       <c r="C462" s="1">
-        <v>-5.6167075197669603E-20</v>
+        <v>-2.8083537704279003E-20</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -19288,7 +19288,7 @@
         <v>461</v>
       </c>
       <c r="C463" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.8124033438635099E-20</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -19299,7 +19299,7 @@
         <v>462</v>
       </c>
       <c r="C464" s="1">
-        <v>-5.63289655147227E-20</v>
+        <v>-2.81644828631075E-20</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -19310,7 +19310,7 @@
         <v>463</v>
       </c>
       <c r="C465" s="1">
-        <v>0</v>
+        <v>-2.8204886118244099E-20</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -19321,7 +19321,7 @@
         <v>464</v>
       </c>
       <c r="C466" s="1">
-        <v>-5.6490486475757797E-20</v>
+        <v>-2.8245243343926198E-20</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -19332,7 +19332,7 @@
         <v>465</v>
       </c>
       <c r="C467" s="1">
-        <v>0</v>
+        <v>-2.8285554679406802E-20</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -19343,7 +19343,7 @@
         <v>466</v>
       </c>
       <c r="C468" s="1">
-        <v>-5.6651640313865003E-20</v>
+        <v>-2.8325820263280198E-20</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -19354,7 +19354,7 @@
         <v>467</v>
       </c>
       <c r="C469" s="1">
-        <v>0</v>
+        <v>-2.8366040233519798E-20</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -19365,7 +19365,7 @@
         <v>468</v>
       </c>
       <c r="C470" s="1">
-        <v>-5.6812429241601098E-20</v>
+        <v>-2.8406214727447903E-20</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -19376,7 +19376,7 @@
         <v>469</v>
       </c>
       <c r="C471" s="1">
-        <v>0</v>
+        <v>-2.8446343881773803E-20</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -19387,7 +19387,7 @@
         <v>470</v>
       </c>
       <c r="C472" s="1">
-        <v>-5.6972855451232098E-20</v>
+        <v>-2.8486427832562403E-20</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -19398,7 +19398,7 @@
         <v>471</v>
       </c>
       <c r="C473" s="1">
-        <v>0</v>
+        <v>-2.8526466715273799E-20</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -19409,7 +19409,7 @@
         <v>472</v>
       </c>
       <c r="C474" s="1">
-        <v>-5.7132921114972099E-20</v>
+        <v>-2.85664606647307E-20</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -19420,7 +19420,7 @@
         <v>473</v>
       </c>
       <c r="C475" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.8606409815158302E-20</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -19431,7 +19431,7 @@
         <v>474</v>
       </c>
       <c r="C476" s="1">
-        <v>-5.7292628385219006E-20</v>
+        <v>-2.86463143001518E-20</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -19442,7 +19442,7 @@
         <v>475</v>
       </c>
       <c r="C477" s="1">
-        <v>-1.20370621524202E-35</v>
+        <v>-2.8686174252715903E-20</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -19453,7 +19453,7 @@
         <v>476</v>
       </c>
       <c r="C478" s="1">
-        <v>-5.7451979394787205E-20</v>
+        <v>-2.87259898052328E-20</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -19464,7 +19464,7 @@
         <v>477</v>
       </c>
       <c r="C479" s="1">
-        <v>0</v>
+        <v>-2.8765761089501003E-20</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -19475,7 +19475,7 @@
         <v>478</v>
       </c>
       <c r="C480" s="1">
-        <v>-5.7610976257136605E-20</v>
+        <v>-2.8805488236703702E-20</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -19486,7 +19486,7 @@
         <v>479</v>
       </c>
       <c r="C481" s="1">
-        <v>0</v>
+        <v>-2.8845171377447499E-20</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -19497,7 +19497,7 @@
         <v>480</v>
       </c>
       <c r="C482" s="1">
-        <v>-5.7769621066599203E-20</v>
+        <v>-2.8884810641730498E-20</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -19508,7 +19508,7 @@
         <v>481</v>
       </c>
       <c r="C483" s="1">
-        <v>1.20370621524202E-35</v>
+        <v>-2.8924406158981398E-20</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -19519,7 +19519,7 @@
         <v>482</v>
       </c>
       <c r="C484" s="1">
-        <v>-5.7927915898602304E-20</v>
+        <v>-2.8963958058026903E-20</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -19530,7 +19530,7 @@
         <v>483</v>
       </c>
       <c r="C485" s="1">
-        <v>0</v>
+        <v>-2.90034664671313E-20</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -19541,7 +19541,7 @@
         <v>484</v>
       </c>
       <c r="C486" s="1">
-        <v>-5.8085862809887904E-20</v>
+        <v>-2.9042931513963901E-20</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -19552,7 +19552,7 @@
         <v>485</v>
       </c>
       <c r="C487" s="1">
-        <v>0</v>
+        <v>-2.9082353325638002E-20</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -19563,7 +19563,7 @@
         <v>486</v>
       </c>
       <c r="C488" s="1">
-        <v>-5.8243463838730905E-20</v>
+        <v>-2.9121732028678799E-20</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -19574,7 +19574,7 @@
         <v>487</v>
       </c>
       <c r="C489" s="1">
-        <v>0</v>
+        <v>-2.91610677490622E-20</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -19585,7 +19585,7 @@
         <v>488</v>
       </c>
       <c r="C490" s="1">
-        <v>-5.8400721005152296E-20</v>
+        <v>-2.9200360612182302E-20</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -19596,7 +19596,7 @@
         <v>489</v>
       </c>
       <c r="C491" s="1">
-        <v>1.20370621524202E-35</v>
+        <v>-2.9239610742890799E-20</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -19607,7 +19607,7 @@
         <v>490</v>
       </c>
       <c r="C492" s="1">
-        <v>-5.8557636311131095E-20</v>
+        <v>-2.9278818265463799E-20</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -19618,7 +19618,7 @@
         <v>491</v>
       </c>
       <c r="C493" s="1">
-        <v>0</v>
+        <v>-2.93179833036418E-20</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -19629,7 +19629,7 @@
         <v>492</v>
       </c>
       <c r="C494" s="1">
-        <v>-5.8714211740812199E-20</v>
+        <v>-2.93571059805959E-20</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -19640,7 +19640,7 @@
         <v>493</v>
       </c>
       <c r="C495" s="1">
-        <v>0</v>
+        <v>-2.9396186418967899E-20</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -19651,7 +19651,7 @@
         <v>494</v>
       </c>
       <c r="C496" s="1">
-        <v>-5.8870449260712396E-20</v>
+        <v>-2.9435224740836802E-20</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -19662,7 +19662,7 @@
         <v>495</v>
       </c>
       <c r="C497" s="1">
-        <v>-2.40741243048404E-35</v>
+        <v>-2.9474221067758501E-20</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -19673,7 +19673,7 @@
         <v>496</v>
       </c>
       <c r="C498" s="1">
-        <v>-5.9026350819923103E-20</v>
+        <v>-2.9513175520732201E-20</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -19684,7 +19684,7 @@
         <v>497</v>
       </c>
       <c r="C499" s="1">
-        <v>0</v>
+        <v>-2.9552088220240502E-20</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -19695,7 +19695,7 @@
         <v>498</v>
       </c>
       <c r="C500" s="1">
-        <v>-5.9181918350309801E-20</v>
+        <v>-2.9590959286215198E-20</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -19706,7 +19706,7 @@
         <v>499</v>
       </c>
       <c r="C501" s="1">
-        <v>0</v>
+        <v>-2.96297888380776E-20</v>
       </c>
     </row>
   </sheetData>

--- a/PEUQSE/simulationDriver_YAML/ceO2_output_rates_gas_YAML.xlsx
+++ b/PEUQSE/simulationDriver_YAML/ceO2_output_rates_gas_YAML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fvs\Documents\GitHub\PEUQSE\PEUQSE\simulationDriver_YAML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0060622-15CA-451A-B465-4334ABD7863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9324B-7216-42AC-8857-45DA6A3455F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
